--- a/analisis/analisis_princess_mundo_imperial.xlsx
+++ b/analisis/analisis_princess_mundo_imperial.xlsx
@@ -2620,6 +2620,30 @@
       <c r="A2" t="str">
         <v>DEPARTAMENTO: RESERVACIONES</v>
       </c>
+      <c r="B2" t="str">
+        <v/>
+      </c>
+      <c r="C2" t="str">
+        <v/>
+      </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v/>
+      </c>
+      <c r="F2" t="str">
+        <v/>
+      </c>
+      <c r="G2" t="str">
+        <v/>
+      </c>
+      <c r="H2" t="str">
+        <v/>
+      </c>
+      <c r="I2" t="str">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -4771,6 +4795,30 @@
       <c r="A77" t="str">
         <v>DEPARTAMENTO: CAFETERÍA EMPLEADOS</v>
       </c>
+      <c r="B77" t="str">
+        <v/>
+      </c>
+      <c r="C77" t="str">
+        <v/>
+      </c>
+      <c r="D77" t="str">
+        <v/>
+      </c>
+      <c r="E77" t="str">
+        <v/>
+      </c>
+      <c r="F77" t="str">
+        <v/>
+      </c>
+      <c r="G77" t="str">
+        <v/>
+      </c>
+      <c r="H77" t="str">
+        <v/>
+      </c>
+      <c r="I77" t="str">
+        <v/>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
@@ -6806,6 +6854,30 @@
       <c r="A148" t="str">
         <v>DEPARTAMENTO: A&amp;B COCINAS</v>
       </c>
+      <c r="B148" t="str">
+        <v/>
+      </c>
+      <c r="C148" t="str">
+        <v/>
+      </c>
+      <c r="D148" t="str">
+        <v/>
+      </c>
+      <c r="E148" t="str">
+        <v/>
+      </c>
+      <c r="F148" t="str">
+        <v/>
+      </c>
+      <c r="G148" t="str">
+        <v/>
+      </c>
+      <c r="H148" t="str">
+        <v/>
+      </c>
+      <c r="I148" t="str">
+        <v/>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
@@ -8841,6 +8913,30 @@
       <c r="A219" t="str">
         <v>DEPARTAMENTO: AMA DE LLAVES</v>
       </c>
+      <c r="B219" t="str">
+        <v/>
+      </c>
+      <c r="C219" t="str">
+        <v/>
+      </c>
+      <c r="D219" t="str">
+        <v/>
+      </c>
+      <c r="E219" t="str">
+        <v/>
+      </c>
+      <c r="F219" t="str">
+        <v/>
+      </c>
+      <c r="G219" t="str">
+        <v/>
+      </c>
+      <c r="H219" t="str">
+        <v/>
+      </c>
+      <c r="I219" t="str">
+        <v/>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
@@ -10876,6 +10972,30 @@
       <c r="A290" t="str">
         <v>DEPARTAMENTO: CONTABILIDAD</v>
       </c>
+      <c r="B290" t="str">
+        <v/>
+      </c>
+      <c r="C290" t="str">
+        <v/>
+      </c>
+      <c r="D290" t="str">
+        <v/>
+      </c>
+      <c r="E290" t="str">
+        <v/>
+      </c>
+      <c r="F290" t="str">
+        <v/>
+      </c>
+      <c r="G290" t="str">
+        <v/>
+      </c>
+      <c r="H290" t="str">
+        <v/>
+      </c>
+      <c r="I290" t="str">
+        <v/>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="str">
@@ -13027,6 +13147,30 @@
       <c r="A365" t="str">
         <v>DEPARTAMENTO: TALENTO HUMANO</v>
       </c>
+      <c r="B365" t="str">
+        <v/>
+      </c>
+      <c r="C365" t="str">
+        <v/>
+      </c>
+      <c r="D365" t="str">
+        <v/>
+      </c>
+      <c r="E365" t="str">
+        <v/>
+      </c>
+      <c r="F365" t="str">
+        <v/>
+      </c>
+      <c r="G365" t="str">
+        <v/>
+      </c>
+      <c r="H365" t="str">
+        <v/>
+      </c>
+      <c r="I365" t="str">
+        <v/>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="str">
@@ -15178,6 +15322,30 @@
       <c r="A440" t="str">
         <v>DEPARTAMENTO: CONSTRUCCIÓN</v>
       </c>
+      <c r="B440" t="str">
+        <v/>
+      </c>
+      <c r="C440" t="str">
+        <v/>
+      </c>
+      <c r="D440" t="str">
+        <v/>
+      </c>
+      <c r="E440" t="str">
+        <v/>
+      </c>
+      <c r="F440" t="str">
+        <v/>
+      </c>
+      <c r="G440" t="str">
+        <v/>
+      </c>
+      <c r="H440" t="str">
+        <v/>
+      </c>
+      <c r="I440" t="str">
+        <v/>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="str">
@@ -17213,6 +17381,30 @@
       <c r="A511" t="str">
         <v>DEPARTAMENTO: VENTAS MKT</v>
       </c>
+      <c r="B511" t="str">
+        <v/>
+      </c>
+      <c r="C511" t="str">
+        <v/>
+      </c>
+      <c r="D511" t="str">
+        <v/>
+      </c>
+      <c r="E511" t="str">
+        <v/>
+      </c>
+      <c r="F511" t="str">
+        <v/>
+      </c>
+      <c r="G511" t="str">
+        <v/>
+      </c>
+      <c r="H511" t="str">
+        <v/>
+      </c>
+      <c r="I511" t="str">
+        <v/>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="str">
@@ -19364,6 +19556,30 @@
       <c r="A586" t="str">
         <v>DEPARTAMENTO: MANTENIMIENTO</v>
       </c>
+      <c r="B586" t="str">
+        <v/>
+      </c>
+      <c r="C586" t="str">
+        <v/>
+      </c>
+      <c r="D586" t="str">
+        <v/>
+      </c>
+      <c r="E586" t="str">
+        <v/>
+      </c>
+      <c r="F586" t="str">
+        <v/>
+      </c>
+      <c r="G586" t="str">
+        <v/>
+      </c>
+      <c r="H586" t="str">
+        <v/>
+      </c>
+      <c r="I586" t="str">
+        <v/>
+      </c>
     </row>
     <row r="587">
       <c r="A587" t="str">
@@ -21283,6 +21499,30 @@
       <c r="A653" t="str">
         <v>DEPARTAMENTO: TECNOLOGÍA</v>
       </c>
+      <c r="B653" t="str">
+        <v/>
+      </c>
+      <c r="C653" t="str">
+        <v/>
+      </c>
+      <c r="D653" t="str">
+        <v/>
+      </c>
+      <c r="E653" t="str">
+        <v/>
+      </c>
+      <c r="F653" t="str">
+        <v/>
+      </c>
+      <c r="G653" t="str">
+        <v/>
+      </c>
+      <c r="H653" t="str">
+        <v/>
+      </c>
+      <c r="I653" t="str">
+        <v/>
+      </c>
     </row>
     <row r="654">
       <c r="A654" t="str">
@@ -23434,6 +23674,30 @@
       <c r="A728" t="str">
         <v>DEPARTAMENTO: PREVENCIÓN DE RIESGOS</v>
       </c>
+      <c r="B728" t="str">
+        <v/>
+      </c>
+      <c r="C728" t="str">
+        <v/>
+      </c>
+      <c r="D728" t="str">
+        <v/>
+      </c>
+      <c r="E728" t="str">
+        <v/>
+      </c>
+      <c r="F728" t="str">
+        <v/>
+      </c>
+      <c r="G728" t="str">
+        <v/>
+      </c>
+      <c r="H728" t="str">
+        <v/>
+      </c>
+      <c r="I728" t="str">
+        <v/>
+      </c>
     </row>
     <row r="729">
       <c r="A729" t="str">
@@ -25469,6 +25733,30 @@
       <c r="A799" t="str">
         <v>DEPARTAMENTO: VENTAS</v>
       </c>
+      <c r="B799" t="str">
+        <v/>
+      </c>
+      <c r="C799" t="str">
+        <v/>
+      </c>
+      <c r="D799" t="str">
+        <v/>
+      </c>
+      <c r="E799" t="str">
+        <v/>
+      </c>
+      <c r="F799" t="str">
+        <v/>
+      </c>
+      <c r="G799" t="str">
+        <v/>
+      </c>
+      <c r="H799" t="str">
+        <v/>
+      </c>
+      <c r="I799" t="str">
+        <v/>
+      </c>
     </row>
     <row r="800">
       <c r="A800" t="str">
@@ -27620,6 +27908,30 @@
       <c r="A874" t="str">
         <v>DEPARTAMENTO: VENTAS INDIVIDUALES</v>
       </c>
+      <c r="B874" t="str">
+        <v/>
+      </c>
+      <c r="C874" t="str">
+        <v/>
+      </c>
+      <c r="D874" t="str">
+        <v/>
+      </c>
+      <c r="E874" t="str">
+        <v/>
+      </c>
+      <c r="F874" t="str">
+        <v/>
+      </c>
+      <c r="G874" t="str">
+        <v/>
+      </c>
+      <c r="H874" t="str">
+        <v/>
+      </c>
+      <c r="I874" t="str">
+        <v/>
+      </c>
     </row>
     <row r="875">
       <c r="A875" t="str">
@@ -29655,6 +29967,30 @@
       <c r="A945" t="str">
         <v>DEPARTAMENTO: VENTAS GRUPOS</v>
       </c>
+      <c r="B945" t="str">
+        <v/>
+      </c>
+      <c r="C945" t="str">
+        <v/>
+      </c>
+      <c r="D945" t="str">
+        <v/>
+      </c>
+      <c r="E945" t="str">
+        <v/>
+      </c>
+      <c r="F945" t="str">
+        <v/>
+      </c>
+      <c r="G945" t="str">
+        <v/>
+      </c>
+      <c r="H945" t="str">
+        <v/>
+      </c>
+      <c r="I945" t="str">
+        <v/>
+      </c>
     </row>
     <row r="946">
       <c r="A946" t="str">
@@ -31806,6 +32142,30 @@
       <c r="A1020" t="str">
         <v>DEPARTAMENTO: MARKETING</v>
       </c>
+      <c r="B1020" t="str">
+        <v/>
+      </c>
+      <c r="C1020" t="str">
+        <v/>
+      </c>
+      <c r="D1020" t="str">
+        <v/>
+      </c>
+      <c r="E1020" t="str">
+        <v/>
+      </c>
+      <c r="F1020" t="str">
+        <v/>
+      </c>
+      <c r="G1020" t="str">
+        <v/>
+      </c>
+      <c r="H1020" t="str">
+        <v/>
+      </c>
+      <c r="I1020" t="str">
+        <v/>
+      </c>
     </row>
     <row r="1021">
       <c r="A1021" t="str">
@@ -33841,6 +34201,30 @@
       <c r="A1091" t="str">
         <v>DEPARTAMENTO: DIRECCION</v>
       </c>
+      <c r="B1091" t="str">
+        <v/>
+      </c>
+      <c r="C1091" t="str">
+        <v/>
+      </c>
+      <c r="D1091" t="str">
+        <v/>
+      </c>
+      <c r="E1091" t="str">
+        <v/>
+      </c>
+      <c r="F1091" t="str">
+        <v/>
+      </c>
+      <c r="G1091" t="str">
+        <v/>
+      </c>
+      <c r="H1091" t="str">
+        <v/>
+      </c>
+      <c r="I1091" t="str">
+        <v/>
+      </c>
     </row>
     <row r="1092">
       <c r="A1092" t="str">
@@ -35875,6 +36259,30 @@
     <row r="1162">
       <c r="A1162" t="str">
         <v>DEPARTAMENTO: REVENUE</v>
+      </c>
+      <c r="B1162" t="str">
+        <v/>
+      </c>
+      <c r="C1162" t="str">
+        <v/>
+      </c>
+      <c r="D1162" t="str">
+        <v/>
+      </c>
+      <c r="E1162" t="str">
+        <v/>
+      </c>
+      <c r="F1162" t="str">
+        <v/>
+      </c>
+      <c r="G1162" t="str">
+        <v/>
+      </c>
+      <c r="H1162" t="str">
+        <v/>
+      </c>
+      <c r="I1162" t="str">
+        <v/>
       </c>
     </row>
     <row r="1163">

--- a/analisis/analisis_princess_mundo_imperial.xlsx
+++ b/analisis/analisis_princess_mundo_imperial.xlsx
@@ -27217,7 +27217,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -27229,7 +27229,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>GÉNERO</v>
+        <v>3. GÉNERO</v>
       </c>
       <c r="B1" t="str">
         <v/>
@@ -27295,7 +27295,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>EDAD</v>
+        <v>4. EDAD</v>
       </c>
       <c r="B7" t="str">
         <v/>
@@ -27416,7 +27416,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>ESTADO CIVIL</v>
+        <v>5. ESTADO CIVIL</v>
       </c>
       <c r="B18" t="str">
         <v/>
@@ -27504,7 +27504,7 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>NIVEL DE ESTUDIOS</v>
+        <v>6. NIVEL DE ESTUDIOS</v>
       </c>
       <c r="B26" t="str">
         <v/>
@@ -27614,7 +27614,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>TIPO DE PUESTO</v>
+        <v>8. DEPARTAMENTO</v>
       </c>
       <c r="B36" t="str">
         <v/>
@@ -27636,157 +27636,421 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Supervisor/Jefe</v>
+        <v>Reservaciones</v>
       </c>
       <c r="B38">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C38" t="str">
-        <v>12.86%</v>
+        <v>51.43%</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Anfitrión de Línea</v>
+        <v>Talento Humano</v>
       </c>
       <c r="B39">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="C39" t="str">
-        <v>70.00%</v>
+        <v>5.71%</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Gerente/Director</v>
+        <v>Construcción</v>
       </c>
       <c r="B40">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C40" t="str">
-        <v>17.14%</v>
+        <v>1.43%</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v/>
-      </c>
-      <c r="B41" t="str">
-        <v/>
+        <v>Ventas Mkt</v>
+      </c>
+      <c r="B41">
+        <v>7</v>
       </c>
       <c r="C41" t="str">
-        <v/>
+        <v>10.00%</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>TIEMPO EN PUESTO</v>
-      </c>
-      <c r="B42" t="str">
-        <v/>
+        <v>Mantenimiento</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
       </c>
       <c r="C42" t="str">
-        <v/>
+        <v>1.43%</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Opción</v>
-      </c>
-      <c r="B43" t="str">
-        <v>Cantidad</v>
+        <v>Ventas</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
       </c>
       <c r="C43" t="str">
-        <v>Porcentaje</v>
+        <v>7.14%</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Entre 1 a 4 años</v>
+        <v>Ventas individuales</v>
       </c>
       <c r="B44">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C44" t="str">
-        <v>52.86%</v>
+        <v>5.71%</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Menos de 6 meses</v>
+        <v>Ventas grupos</v>
       </c>
       <c r="B45">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C45" t="str">
-        <v>15.71%</v>
+        <v>7.14%</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Entre 6 meses y 1 año</v>
+        <v>Marketing</v>
       </c>
       <c r="B46">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C46" t="str">
-        <v>20.00%</v>
+        <v>2.86%</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Entre 5 a 9 años</v>
+        <v>Contabilidad</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C47" t="str">
-        <v>8.57%</v>
+        <v>4.29%</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Entre 10 a 14 años</v>
+        <v>Revenue</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48" t="str">
-        <v>1.43%</v>
+        <v>2.86%</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Entre 15 a 19 años</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="B49" t="str">
+        <v/>
       </c>
       <c r="C49" t="str">
-        <v>1.43%</v>
+        <v/>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v/>
+        <v>9. TIPO DE PUESTO</v>
       </c>
       <c r="B50" t="str">
         <v/>
       </c>
       <c r="C50" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Opción</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Cantidad</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Porcentaje</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Supervisor/Jefe</v>
+      </c>
+      <c r="B52">
+        <v>9</v>
+      </c>
+      <c r="C52" t="str">
+        <v>12.86%</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Anfitrión de Línea</v>
+      </c>
+      <c r="B53">
+        <v>49</v>
+      </c>
+      <c r="C53" t="str">
+        <v>70.00%</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Gerente/Director</v>
+      </c>
+      <c r="B54">
+        <v>12</v>
+      </c>
+      <c r="C54" t="str">
+        <v>17.14%</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v/>
+      </c>
+      <c r="B55" t="str">
+        <v/>
+      </c>
+      <c r="C55" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>12. TIEMPO EN PUESTO</v>
+      </c>
+      <c r="B56" t="str">
+        <v/>
+      </c>
+      <c r="C56" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Opción</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Cantidad</v>
+      </c>
+      <c r="C57" t="str">
+        <v>Porcentaje</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Entre 1 a 4 años</v>
+      </c>
+      <c r="B58">
+        <v>37</v>
+      </c>
+      <c r="C58" t="str">
+        <v>52.86%</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Menos de 6 meses</v>
+      </c>
+      <c r="B59">
+        <v>11</v>
+      </c>
+      <c r="C59" t="str">
+        <v>15.71%</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Entre 6 meses y 1 año</v>
+      </c>
+      <c r="B60">
+        <v>14</v>
+      </c>
+      <c r="C60" t="str">
+        <v>20.00%</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Entre 5 a 9 años</v>
+      </c>
+      <c r="B61">
+        <v>6</v>
+      </c>
+      <c r="C61" t="str">
+        <v>8.57%</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Entre 10 a 14 años</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="str">
+        <v>1.43%</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Entre 15 a 19 años</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="str">
+        <v>1.43%</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v/>
+      </c>
+      <c r="B64" t="str">
+        <v/>
+      </c>
+      <c r="C64" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>13. TIEMPO DE EXPERIENCIA LABORAL</v>
+      </c>
+      <c r="B65" t="str">
+        <v/>
+      </c>
+      <c r="C65" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Opción</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Cantidad</v>
+      </c>
+      <c r="C66" t="str">
+        <v>Porcentaje</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Entre 1 a 4 años</v>
+      </c>
+      <c r="B67">
+        <v>22</v>
+      </c>
+      <c r="C67" t="str">
+        <v>31.43%</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Menos de 6 meses</v>
+      </c>
+      <c r="B68">
+        <v>8</v>
+      </c>
+      <c r="C68" t="str">
+        <v>11.43%</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Entre 5 a 9 años</v>
+      </c>
+      <c r="B69">
+        <v>17</v>
+      </c>
+      <c r="C69" t="str">
+        <v>24.29%</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Entre 10 a 14 años</v>
+      </c>
+      <c r="B70">
+        <v>8</v>
+      </c>
+      <c r="C70" t="str">
+        <v>11.43%</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Entre 20 a 24 años</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="C71" t="str">
+        <v>5.71%</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Entre 6 meses y 1 año</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72" t="str">
+        <v>4.29%</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Entre 15 a 19 años</v>
+      </c>
+      <c r="B73">
+        <v>8</v>
+      </c>
+      <c r="C73" t="str">
+        <v>11.43%</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v/>
+      </c>
+      <c r="B74" t="str">
+        <v/>
+      </c>
+      <c r="C74" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C50"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C74"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C386"/>
+  <dimension ref="A1:C495"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -27809,7 +28073,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>GÉNERO</v>
+        <v>3. GÉNERO</v>
       </c>
       <c r="B2" t="str">
         <v/>
@@ -27875,7 +28139,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>EDAD</v>
+        <v>4. EDAD</v>
       </c>
       <c r="B8" t="str">
         <v/>
@@ -27985,7 +28249,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>ESTADO CIVIL</v>
+        <v>5. ESTADO CIVIL</v>
       </c>
       <c r="B18" t="str">
         <v/>
@@ -28062,7 +28326,7 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>NIVEL DE ESTUDIOS</v>
+        <v>6. NIVEL DE ESTUDIOS</v>
       </c>
       <c r="B25" t="str">
         <v/>
@@ -28128,7 +28392,7 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>TIPO DE PUESTO</v>
+        <v>8. DEPARTAMENTO</v>
       </c>
       <c r="B31" t="str">
         <v/>
@@ -28150,150 +28414,150 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Supervisor/Jefe</v>
+        <v>Reservaciones</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C33" t="str">
-        <v>13.89%</v>
+        <v>100.00%</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Anfitrión de Línea</v>
-      </c>
-      <c r="B34">
-        <v>30</v>
+        <v/>
+      </c>
+      <c r="B34" t="str">
+        <v/>
       </c>
       <c r="C34" t="str">
-        <v>83.33%</v>
+        <v/>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Gerente/Director</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
+        <v>9. TIPO DE PUESTO</v>
+      </c>
+      <c r="B35" t="str">
+        <v/>
       </c>
       <c r="C35" t="str">
-        <v>2.78%</v>
+        <v/>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v/>
+        <v>Opción</v>
       </c>
       <c r="B36" t="str">
-        <v/>
+        <v>Cantidad</v>
       </c>
       <c r="C36" t="str">
-        <v/>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>TIEMPO EN PUESTO</v>
-      </c>
-      <c r="B37" t="str">
-        <v/>
+        <v>Supervisor/Jefe</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
       </c>
       <c r="C37" t="str">
-        <v/>
+        <v>13.89%</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Opción</v>
-      </c>
-      <c r="B38" t="str">
-        <v>Cantidad</v>
+        <v>Anfitrión de Línea</v>
+      </c>
+      <c r="B38">
+        <v>30</v>
       </c>
       <c r="C38" t="str">
-        <v>Porcentaje</v>
+        <v>83.33%</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Entre 1 a 4 años</v>
+        <v>Gerente/Director</v>
       </c>
       <c r="B39">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C39" t="str">
-        <v>52.78%</v>
+        <v>2.78%</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Menos de 6 meses</v>
-      </c>
-      <c r="B40">
-        <v>8</v>
+        <v/>
+      </c>
+      <c r="B40" t="str">
+        <v/>
       </c>
       <c r="C40" t="str">
-        <v>22.22%</v>
+        <v/>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Entre 6 meses y 1 año</v>
-      </c>
-      <c r="B41">
-        <v>9</v>
+        <v>12. TIEMPO EN PUESTO</v>
+      </c>
+      <c r="B41" t="str">
+        <v/>
       </c>
       <c r="C41" t="str">
-        <v>25.00%</v>
+        <v/>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v/>
+        <v>Opción</v>
       </c>
       <c r="B42" t="str">
-        <v/>
+        <v>Cantidad</v>
       </c>
       <c r="C42" t="str">
-        <v/>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v/>
-      </c>
-      <c r="B43" t="str">
-        <v/>
+        <v>Entre 1 a 4 años</v>
+      </c>
+      <c r="B43">
+        <v>19</v>
       </c>
       <c r="C43" t="str">
-        <v/>
+        <v>52.78%</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>-------------------------</v>
-      </c>
-      <c r="B44" t="str">
-        <v/>
+        <v>Menos de 6 meses</v>
+      </c>
+      <c r="B44">
+        <v>8</v>
       </c>
       <c r="C44" t="str">
-        <v/>
+        <v>22.22%</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v/>
-      </c>
-      <c r="B45" t="str">
-        <v/>
+        <v>Entre 6 meses y 1 año</v>
+      </c>
+      <c r="B45">
+        <v>9</v>
       </c>
       <c r="C45" t="str">
-        <v/>
+        <v>25.00%</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>DEPARTAMENTO: TALENTO HUMANO</v>
+        <v/>
       </c>
       <c r="B46" t="str">
         <v/>
@@ -28304,7 +28568,7 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>GÉNERO</v>
+        <v>13. TIEMPO DE EXPERIENCIA LABORAL</v>
       </c>
       <c r="B47" t="str">
         <v/>
@@ -28326,95 +28590,95 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Femenino</v>
+        <v>Entre 1 a 4 años</v>
       </c>
       <c r="B49">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C49" t="str">
-        <v>50.00%</v>
+        <v>41.67%</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Prefiero no decirlo</v>
+        <v>Menos de 6 meses</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C50" t="str">
-        <v>25.00%</v>
+        <v>16.67%</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Masculino</v>
+        <v>Entre 5 a 9 años</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C51" t="str">
-        <v>25.00%</v>
+        <v>27.78%</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v/>
-      </c>
-      <c r="B52" t="str">
-        <v/>
+        <v>Entre 10 a 14 años</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
       </c>
       <c r="C52" t="str">
-        <v/>
+        <v>2.78%</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>EDAD</v>
-      </c>
-      <c r="B53" t="str">
-        <v/>
+        <v>Entre 20 a 24 años</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
       </c>
       <c r="C53" t="str">
-        <v/>
+        <v>5.56%</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Opción</v>
-      </c>
-      <c r="B54" t="str">
-        <v>Cantidad</v>
+        <v>Entre 6 meses y 1 año</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
       </c>
       <c r="C54" t="str">
-        <v>Porcentaje</v>
+        <v>5.56%</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>20 - 24</v>
-      </c>
-      <c r="B55">
-        <v>3</v>
+        <v/>
+      </c>
+      <c r="B55" t="str">
+        <v/>
       </c>
       <c r="C55" t="str">
-        <v>75.00%</v>
+        <v/>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>40 - 44</v>
-      </c>
-      <c r="B56">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="B56" t="str">
+        <v/>
       </c>
       <c r="C56" t="str">
-        <v>25.00%</v>
+        <v/>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v/>
+        <v>-------------------------</v>
       </c>
       <c r="B57" t="str">
         <v/>
@@ -28425,7 +28689,7 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>ESTADO CIVIL</v>
+        <v/>
       </c>
       <c r="B58" t="str">
         <v/>
@@ -28436,84 +28700,84 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Opción</v>
+        <v>DEPARTAMENTO: TALENTO HUMANO</v>
       </c>
       <c r="B59" t="str">
-        <v>Cantidad</v>
+        <v/>
       </c>
       <c r="C59" t="str">
-        <v>Porcentaje</v>
+        <v/>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Soltero</v>
-      </c>
-      <c r="B60">
-        <v>3</v>
+        <v>3. GÉNERO</v>
+      </c>
+      <c r="B60" t="str">
+        <v/>
       </c>
       <c r="C60" t="str">
-        <v>75.00%</v>
+        <v/>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Unión libre</v>
-      </c>
-      <c r="B61">
-        <v>1</v>
+        <v>Opción</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Cantidad</v>
       </c>
       <c r="C61" t="str">
-        <v>25.00%</v>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v/>
-      </c>
-      <c r="B62" t="str">
-        <v/>
+        <v>Femenino</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
       </c>
       <c r="C62" t="str">
-        <v/>
+        <v>50.00%</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>NIVEL DE ESTUDIOS</v>
-      </c>
-      <c r="B63" t="str">
-        <v/>
+        <v>Prefiero no decirlo</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
       </c>
       <c r="C63" t="str">
-        <v/>
+        <v>25.00%</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Opción</v>
-      </c>
-      <c r="B64" t="str">
-        <v>Cantidad</v>
+        <v>Masculino</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
       </c>
       <c r="C64" t="str">
-        <v>Porcentaje</v>
+        <v>25.00%</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Licenciatura terminada</v>
-      </c>
-      <c r="B65">
-        <v>4</v>
+        <v/>
+      </c>
+      <c r="B65" t="str">
+        <v/>
       </c>
       <c r="C65" t="str">
-        <v>100.00%</v>
+        <v/>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v/>
+        <v>4. EDAD</v>
       </c>
       <c r="B66" t="str">
         <v/>
@@ -28524,51 +28788,51 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>TIPO DE PUESTO</v>
+        <v>Opción</v>
       </c>
       <c r="B67" t="str">
-        <v/>
+        <v>Cantidad</v>
       </c>
       <c r="C67" t="str">
-        <v/>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Opción</v>
-      </c>
-      <c r="B68" t="str">
-        <v>Cantidad</v>
+        <v>20 - 24</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
       </c>
       <c r="C68" t="str">
-        <v>Porcentaje</v>
+        <v>75.00%</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Anfitrión de Línea</v>
+        <v>40 - 44</v>
       </c>
       <c r="B69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C69" t="str">
-        <v>75.00%</v>
+        <v>25.00%</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Gerente/Director</v>
-      </c>
-      <c r="B70">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="B70" t="str">
+        <v/>
       </c>
       <c r="C70" t="str">
-        <v>25.00%</v>
+        <v/>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v/>
+        <v>5. ESTADO CIVIL</v>
       </c>
       <c r="B71" t="str">
         <v/>
@@ -28579,84 +28843,84 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>TIEMPO EN PUESTO</v>
+        <v>Opción</v>
       </c>
       <c r="B72" t="str">
-        <v/>
+        <v>Cantidad</v>
       </c>
       <c r="C72" t="str">
-        <v/>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Opción</v>
-      </c>
-      <c r="B73" t="str">
-        <v>Cantidad</v>
+        <v>Soltero</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
       </c>
       <c r="C73" t="str">
-        <v>Porcentaje</v>
+        <v>75.00%</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Entre 1 a 4 años</v>
+        <v>Unión libre</v>
       </c>
       <c r="B74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C74" t="str">
-        <v>50.00%</v>
+        <v>25.00%</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Menos de 6 meses</v>
-      </c>
-      <c r="B75">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="B75" t="str">
+        <v/>
       </c>
       <c r="C75" t="str">
-        <v>25.00%</v>
+        <v/>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Entre 5 a 9 años</v>
-      </c>
-      <c r="B76">
-        <v>1</v>
+        <v>6. NIVEL DE ESTUDIOS</v>
+      </c>
+      <c r="B76" t="str">
+        <v/>
       </c>
       <c r="C76" t="str">
-        <v>25.00%</v>
+        <v/>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v/>
+        <v>Opción</v>
       </c>
       <c r="B77" t="str">
-        <v/>
+        <v>Cantidad</v>
       </c>
       <c r="C77" t="str">
-        <v/>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v/>
-      </c>
-      <c r="B78" t="str">
-        <v/>
+        <v>Licenciatura terminada</v>
+      </c>
+      <c r="B78">
+        <v>4</v>
       </c>
       <c r="C78" t="str">
-        <v/>
+        <v>100.00%</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>-------------------------</v>
+        <v/>
       </c>
       <c r="B79" t="str">
         <v/>
@@ -28667,7 +28931,7 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v/>
+        <v>8. DEPARTAMENTO</v>
       </c>
       <c r="B80" t="str">
         <v/>
@@ -28678,95 +28942,95 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>DEPARTAMENTO: CONSTRUCCIÓN</v>
+        <v>Opción</v>
       </c>
       <c r="B81" t="str">
-        <v/>
+        <v>Cantidad</v>
       </c>
       <c r="C81" t="str">
-        <v/>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>GÉNERO</v>
-      </c>
-      <c r="B82" t="str">
-        <v/>
+        <v>Talento Humano</v>
+      </c>
+      <c r="B82">
+        <v>4</v>
       </c>
       <c r="C82" t="str">
-        <v/>
+        <v>100.00%</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Opción</v>
+        <v/>
       </c>
       <c r="B83" t="str">
-        <v>Cantidad</v>
+        <v/>
       </c>
       <c r="C83" t="str">
-        <v>Porcentaje</v>
+        <v/>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Masculino</v>
-      </c>
-      <c r="B84">
-        <v>1</v>
+        <v>9. TIPO DE PUESTO</v>
+      </c>
+      <c r="B84" t="str">
+        <v/>
       </c>
       <c r="C84" t="str">
-        <v>100.00%</v>
+        <v/>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v/>
+        <v>Opción</v>
       </c>
       <c r="B85" t="str">
-        <v/>
+        <v>Cantidad</v>
       </c>
       <c r="C85" t="str">
-        <v/>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>EDAD</v>
-      </c>
-      <c r="B86" t="str">
-        <v/>
+        <v>Anfitrión de Línea</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
       </c>
       <c r="C86" t="str">
-        <v/>
+        <v>75.00%</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Opción</v>
-      </c>
-      <c r="B87" t="str">
-        <v>Cantidad</v>
+        <v>Gerente/Director</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
       </c>
       <c r="C87" t="str">
-        <v>Porcentaje</v>
+        <v>25.00%</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>55 - 59</v>
-      </c>
-      <c r="B88">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="B88" t="str">
+        <v/>
       </c>
       <c r="C88" t="str">
-        <v>100.00%</v>
+        <v/>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v/>
+        <v>12. TIEMPO EN PUESTO</v>
       </c>
       <c r="B89" t="str">
         <v/>
@@ -28777,51 +29041,51 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>ESTADO CIVIL</v>
+        <v>Opción</v>
       </c>
       <c r="B90" t="str">
-        <v/>
+        <v>Cantidad</v>
       </c>
       <c r="C90" t="str">
-        <v/>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Opción</v>
-      </c>
-      <c r="B91" t="str">
-        <v>Cantidad</v>
+        <v>Entre 1 a 4 años</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
       </c>
       <c r="C91" t="str">
-        <v>Porcentaje</v>
+        <v>50.00%</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Casado</v>
+        <v>Menos de 6 meses</v>
       </c>
       <c r="B92">
         <v>1</v>
       </c>
       <c r="C92" t="str">
-        <v>100.00%</v>
+        <v>25.00%</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v/>
-      </c>
-      <c r="B93" t="str">
-        <v/>
+        <v>Entre 5 a 9 años</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
       </c>
       <c r="C93" t="str">
-        <v/>
+        <v>25.00%</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>NIVEL DE ESTUDIOS</v>
+        <v/>
       </c>
       <c r="B94" t="str">
         <v/>
@@ -28832,68 +29096,68 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Opción</v>
+        <v>13. TIEMPO DE EXPERIENCIA LABORAL</v>
       </c>
       <c r="B95" t="str">
-        <v>Cantidad</v>
+        <v/>
       </c>
       <c r="C95" t="str">
-        <v>Porcentaje</v>
+        <v/>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Licenciatura terminada</v>
-      </c>
-      <c r="B96">
-        <v>1</v>
+        <v>Opción</v>
+      </c>
+      <c r="B96" t="str">
+        <v>Cantidad</v>
       </c>
       <c r="C96" t="str">
-        <v>100.00%</v>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v/>
-      </c>
-      <c r="B97" t="str">
-        <v/>
+        <v>Entre 1 a 4 años</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
       </c>
       <c r="C97" t="str">
-        <v/>
+        <v>50.00%</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>TIPO DE PUESTO</v>
-      </c>
-      <c r="B98" t="str">
-        <v/>
+        <v>Menos de 6 meses</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
       </c>
       <c r="C98" t="str">
-        <v/>
+        <v>25.00%</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Opción</v>
-      </c>
-      <c r="B99" t="str">
-        <v>Cantidad</v>
+        <v>Entre 15 a 19 años</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
       </c>
       <c r="C99" t="str">
-        <v>Porcentaje</v>
+        <v>25.00%</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Gerente/Director</v>
-      </c>
-      <c r="B100">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="B100" t="str">
+        <v/>
       </c>
       <c r="C100" t="str">
-        <v>100.00%</v>
+        <v/>
       </c>
     </row>
     <row r="101">
@@ -28909,7 +29173,7 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>TIEMPO EN PUESTO</v>
+        <v>-------------------------</v>
       </c>
       <c r="B102" t="str">
         <v/>
@@ -28920,29 +29184,29 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Opción</v>
+        <v/>
       </c>
       <c r="B103" t="str">
-        <v>Cantidad</v>
+        <v/>
       </c>
       <c r="C103" t="str">
-        <v>Porcentaje</v>
+        <v/>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Entre 5 a 9 años</v>
-      </c>
-      <c r="B104">
-        <v>1</v>
+        <v>DEPARTAMENTO: CONSTRUCCIÓN</v>
+      </c>
+      <c r="B104" t="str">
+        <v/>
       </c>
       <c r="C104" t="str">
-        <v>100.00%</v>
+        <v/>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v/>
+        <v>3. GÉNERO</v>
       </c>
       <c r="B105" t="str">
         <v/>
@@ -28953,24 +29217,24 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v/>
+        <v>Opción</v>
       </c>
       <c r="B106" t="str">
-        <v/>
+        <v>Cantidad</v>
       </c>
       <c r="C106" t="str">
-        <v/>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>-------------------------</v>
-      </c>
-      <c r="B107" t="str">
-        <v/>
+        <v>Masculino</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
       </c>
       <c r="C107" t="str">
-        <v/>
+        <v>100.00%</v>
       </c>
     </row>
     <row r="108">
@@ -28986,7 +29250,7 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>DEPARTAMENTO: VENTAS MKT</v>
+        <v>4. EDAD</v>
       </c>
       <c r="B109" t="str">
         <v/>
@@ -28997,128 +29261,128 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>GÉNERO</v>
+        <v>Opción</v>
       </c>
       <c r="B110" t="str">
-        <v/>
+        <v>Cantidad</v>
       </c>
       <c r="C110" t="str">
-        <v/>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Opción</v>
-      </c>
-      <c r="B111" t="str">
-        <v>Cantidad</v>
+        <v>55 - 59</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
       </c>
       <c r="C111" t="str">
-        <v>Porcentaje</v>
+        <v>100.00%</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Masculino</v>
-      </c>
-      <c r="B112">
-        <v>6</v>
+        <v/>
+      </c>
+      <c r="B112" t="str">
+        <v/>
       </c>
       <c r="C112" t="str">
-        <v>85.71%</v>
+        <v/>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Femenino</v>
-      </c>
-      <c r="B113">
-        <v>1</v>
+        <v>5. ESTADO CIVIL</v>
+      </c>
+      <c r="B113" t="str">
+        <v/>
       </c>
       <c r="C113" t="str">
-        <v>14.29%</v>
+        <v/>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v/>
+        <v>Opción</v>
       </c>
       <c r="B114" t="str">
-        <v/>
+        <v>Cantidad</v>
       </c>
       <c r="C114" t="str">
-        <v/>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>EDAD</v>
-      </c>
-      <c r="B115" t="str">
-        <v/>
+        <v>Casado</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
       </c>
       <c r="C115" t="str">
-        <v/>
+        <v>100.00%</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Opción</v>
+        <v/>
       </c>
       <c r="B116" t="str">
-        <v>Cantidad</v>
+        <v/>
       </c>
       <c r="C116" t="str">
-        <v>Porcentaje</v>
+        <v/>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>35 -39</v>
-      </c>
-      <c r="B117">
-        <v>3</v>
+        <v>6. NIVEL DE ESTUDIOS</v>
+      </c>
+      <c r="B117" t="str">
+        <v/>
       </c>
       <c r="C117" t="str">
-        <v>42.86%</v>
+        <v/>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>30 - 34</v>
-      </c>
-      <c r="B118">
-        <v>2</v>
+        <v>Opción</v>
+      </c>
+      <c r="B118" t="str">
+        <v>Cantidad</v>
       </c>
       <c r="C118" t="str">
-        <v>28.57%</v>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>20 - 24</v>
+        <v>Licenciatura terminada</v>
       </c>
       <c r="B119">
         <v>1</v>
       </c>
       <c r="C119" t="str">
-        <v>14.29%</v>
+        <v>100.00%</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>25 -29</v>
-      </c>
-      <c r="B120">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="B120" t="str">
+        <v/>
       </c>
       <c r="C120" t="str">
-        <v>14.29%</v>
+        <v/>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v/>
+        <v>8. DEPARTAMENTO</v>
       </c>
       <c r="B121" t="str">
         <v/>
@@ -29129,117 +29393,117 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>ESTADO CIVIL</v>
+        <v>Opción</v>
       </c>
       <c r="B122" t="str">
-        <v/>
+        <v>Cantidad</v>
       </c>
       <c r="C122" t="str">
-        <v/>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Opción</v>
-      </c>
-      <c r="B123" t="str">
-        <v>Cantidad</v>
+        <v>Construcción</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
       </c>
       <c r="C123" t="str">
-        <v>Porcentaje</v>
+        <v>100.00%</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Soltero</v>
-      </c>
-      <c r="B124">
-        <v>5</v>
+        <v/>
+      </c>
+      <c r="B124" t="str">
+        <v/>
       </c>
       <c r="C124" t="str">
-        <v>71.43%</v>
+        <v/>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Casado</v>
-      </c>
-      <c r="B125">
-        <v>2</v>
+        <v>9. TIPO DE PUESTO</v>
+      </c>
+      <c r="B125" t="str">
+        <v/>
       </c>
       <c r="C125" t="str">
-        <v>28.57%</v>
+        <v/>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v/>
+        <v>Opción</v>
       </c>
       <c r="B126" t="str">
-        <v/>
+        <v>Cantidad</v>
       </c>
       <c r="C126" t="str">
-        <v/>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>NIVEL DE ESTUDIOS</v>
-      </c>
-      <c r="B127" t="str">
-        <v/>
+        <v>Gerente/Director</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
       </c>
       <c r="C127" t="str">
-        <v/>
+        <v>100.00%</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Opción</v>
+        <v/>
       </c>
       <c r="B128" t="str">
-        <v>Cantidad</v>
+        <v/>
       </c>
       <c r="C128" t="str">
-        <v>Porcentaje</v>
+        <v/>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Licenciatura terminada</v>
-      </c>
-      <c r="B129">
-        <v>6</v>
+        <v>12. TIEMPO EN PUESTO</v>
+      </c>
+      <c r="B129" t="str">
+        <v/>
       </c>
       <c r="C129" t="str">
-        <v>85.71%</v>
+        <v/>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Maestría incompleta</v>
-      </c>
-      <c r="B130">
-        <v>1</v>
+        <v>Opción</v>
+      </c>
+      <c r="B130" t="str">
+        <v>Cantidad</v>
       </c>
       <c r="C130" t="str">
-        <v>14.29%</v>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v/>
-      </c>
-      <c r="B131" t="str">
-        <v/>
+        <v>Entre 5 a 9 años</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
       </c>
       <c r="C131" t="str">
-        <v/>
+        <v>100.00%</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>TIPO DE PUESTO</v>
+        <v/>
       </c>
       <c r="B132" t="str">
         <v/>
@@ -29250,46 +29514,46 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Opción</v>
+        <v>13. TIEMPO DE EXPERIENCIA LABORAL</v>
       </c>
       <c r="B133" t="str">
-        <v>Cantidad</v>
+        <v/>
       </c>
       <c r="C133" t="str">
-        <v>Porcentaje</v>
+        <v/>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Gerente/Director</v>
-      </c>
-      <c r="B134">
-        <v>1</v>
+        <v>Opción</v>
+      </c>
+      <c r="B134" t="str">
+        <v>Cantidad</v>
       </c>
       <c r="C134" t="str">
-        <v>14.29%</v>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Anfitrión de Línea</v>
+        <v>Entre 20 a 24 años</v>
       </c>
       <c r="B135">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C135" t="str">
-        <v>71.43%</v>
+        <v>100.00%</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Supervisor/Jefe</v>
-      </c>
-      <c r="B136">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="B136" t="str">
+        <v/>
       </c>
       <c r="C136" t="str">
-        <v>14.29%</v>
+        <v/>
       </c>
     </row>
     <row r="137">
@@ -29305,7 +29569,7 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>TIEMPO EN PUESTO</v>
+        <v>-------------------------</v>
       </c>
       <c r="B138" t="str">
         <v/>
@@ -29316,68 +29580,68 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Opción</v>
+        <v/>
       </c>
       <c r="B139" t="str">
-        <v>Cantidad</v>
+        <v/>
       </c>
       <c r="C139" t="str">
-        <v>Porcentaje</v>
+        <v/>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Entre 1 a 4 años</v>
-      </c>
-      <c r="B140">
-        <v>6</v>
+        <v>DEPARTAMENTO: VENTAS MKT</v>
+      </c>
+      <c r="B140" t="str">
+        <v/>
       </c>
       <c r="C140" t="str">
-        <v>85.71%</v>
+        <v/>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Entre 6 meses y 1 año</v>
-      </c>
-      <c r="B141">
-        <v>1</v>
+        <v>3. GÉNERO</v>
+      </c>
+      <c r="B141" t="str">
+        <v/>
       </c>
       <c r="C141" t="str">
-        <v>14.29%</v>
+        <v/>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v/>
+        <v>Opción</v>
       </c>
       <c r="B142" t="str">
-        <v/>
+        <v>Cantidad</v>
       </c>
       <c r="C142" t="str">
-        <v/>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v/>
-      </c>
-      <c r="B143" t="str">
-        <v/>
+        <v>Masculino</v>
+      </c>
+      <c r="B143">
+        <v>6</v>
       </c>
       <c r="C143" t="str">
-        <v/>
+        <v>85.71%</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>-------------------------</v>
-      </c>
-      <c r="B144" t="str">
-        <v/>
+        <v>Femenino</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
       </c>
       <c r="C144" t="str">
-        <v/>
+        <v>14.29%</v>
       </c>
     </row>
     <row r="145">
@@ -29393,7 +29657,7 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>DEPARTAMENTO: MANTENIMIENTO</v>
+        <v>4. EDAD</v>
       </c>
       <c r="B146" t="str">
         <v/>
@@ -29404,128 +29668,128 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>GÉNERO</v>
+        <v>Opción</v>
       </c>
       <c r="B147" t="str">
-        <v/>
+        <v>Cantidad</v>
       </c>
       <c r="C147" t="str">
-        <v/>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Opción</v>
-      </c>
-      <c r="B148" t="str">
-        <v>Cantidad</v>
+        <v>35 -39</v>
+      </c>
+      <c r="B148">
+        <v>3</v>
       </c>
       <c r="C148" t="str">
-        <v>Porcentaje</v>
+        <v>42.86%</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Masculino</v>
+        <v>30 - 34</v>
       </c>
       <c r="B149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C149" t="str">
-        <v>100.00%</v>
+        <v>28.57%</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v/>
-      </c>
-      <c r="B150" t="str">
-        <v/>
+        <v>20 - 24</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
       </c>
       <c r="C150" t="str">
-        <v/>
+        <v>14.29%</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>EDAD</v>
-      </c>
-      <c r="B151" t="str">
-        <v/>
+        <v>25 -29</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
       </c>
       <c r="C151" t="str">
-        <v/>
+        <v>14.29%</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Opción</v>
+        <v/>
       </c>
       <c r="B152" t="str">
-        <v>Cantidad</v>
+        <v/>
       </c>
       <c r="C152" t="str">
-        <v>Porcentaje</v>
+        <v/>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>60 - 64</v>
-      </c>
-      <c r="B153">
-        <v>1</v>
+        <v>5. ESTADO CIVIL</v>
+      </c>
+      <c r="B153" t="str">
+        <v/>
       </c>
       <c r="C153" t="str">
-        <v>100.00%</v>
+        <v/>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v/>
+        <v>Opción</v>
       </c>
       <c r="B154" t="str">
-        <v/>
+        <v>Cantidad</v>
       </c>
       <c r="C154" t="str">
-        <v/>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>ESTADO CIVIL</v>
-      </c>
-      <c r="B155" t="str">
-        <v/>
+        <v>Soltero</v>
+      </c>
+      <c r="B155">
+        <v>5</v>
       </c>
       <c r="C155" t="str">
-        <v/>
+        <v>71.43%</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Opción</v>
-      </c>
-      <c r="B156" t="str">
-        <v>Cantidad</v>
+        <v>Casado</v>
+      </c>
+      <c r="B156">
+        <v>2</v>
       </c>
       <c r="C156" t="str">
-        <v>Porcentaje</v>
+        <v>28.57%</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Soltero</v>
-      </c>
-      <c r="B157">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="B157" t="str">
+        <v/>
       </c>
       <c r="C157" t="str">
-        <v>100.00%</v>
+        <v/>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v/>
+        <v>6. NIVEL DE ESTUDIOS</v>
       </c>
       <c r="B158" t="str">
         <v/>
@@ -29536,35 +29800,35 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>NIVEL DE ESTUDIOS</v>
+        <v>Opción</v>
       </c>
       <c r="B159" t="str">
-        <v/>
+        <v>Cantidad</v>
       </c>
       <c r="C159" t="str">
-        <v/>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Opción</v>
-      </c>
-      <c r="B160" t="str">
-        <v>Cantidad</v>
+        <v>Licenciatura terminada</v>
+      </c>
+      <c r="B160">
+        <v>6</v>
       </c>
       <c r="C160" t="str">
-        <v>Porcentaje</v>
+        <v>85.71%</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Primaria incompleta</v>
+        <v>Maestría incompleta</v>
       </c>
       <c r="B161">
         <v>1</v>
       </c>
       <c r="C161" t="str">
-        <v>100.00%</v>
+        <v>14.29%</v>
       </c>
     </row>
     <row r="162">
@@ -29580,7 +29844,7 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>TIPO DE PUESTO</v>
+        <v>8. DEPARTAMENTO</v>
       </c>
       <c r="B163" t="str">
         <v/>
@@ -29602,10 +29866,10 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Anfitrión de Línea</v>
+        <v>Ventas Mkt</v>
       </c>
       <c r="B165">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C165" t="str">
         <v>100.00%</v>
@@ -29624,7 +29888,7 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>TIEMPO EN PUESTO</v>
+        <v>9. TIPO DE PUESTO</v>
       </c>
       <c r="B167" t="str">
         <v/>
@@ -29646,40 +29910,40 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Entre 1 a 4 años</v>
+        <v>Gerente/Director</v>
       </c>
       <c r="B169">
         <v>1</v>
       </c>
       <c r="C169" t="str">
-        <v>100.00%</v>
+        <v>14.29%</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v/>
-      </c>
-      <c r="B170" t="str">
-        <v/>
+        <v>Anfitrión de Línea</v>
+      </c>
+      <c r="B170">
+        <v>5</v>
       </c>
       <c r="C170" t="str">
-        <v/>
+        <v>71.43%</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v/>
-      </c>
-      <c r="B171" t="str">
-        <v/>
+        <v>Supervisor/Jefe</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
       </c>
       <c r="C171" t="str">
-        <v/>
+        <v>14.29%</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>-------------------------</v>
+        <v/>
       </c>
       <c r="B172" t="str">
         <v/>
@@ -29690,7 +29954,7 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v/>
+        <v>12. TIEMPO EN PUESTO</v>
       </c>
       <c r="B173" t="str">
         <v/>
@@ -29701,145 +29965,145 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>DEPARTAMENTO: VENTAS</v>
+        <v>Opción</v>
       </c>
       <c r="B174" t="str">
-        <v/>
+        <v>Cantidad</v>
       </c>
       <c r="C174" t="str">
-        <v/>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>GÉNERO</v>
-      </c>
-      <c r="B175" t="str">
-        <v/>
+        <v>Entre 1 a 4 años</v>
+      </c>
+      <c r="B175">
+        <v>6</v>
       </c>
       <c r="C175" t="str">
-        <v/>
+        <v>85.71%</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>Opción</v>
-      </c>
-      <c r="B176" t="str">
-        <v>Cantidad</v>
+        <v>Entre 6 meses y 1 año</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
       </c>
       <c r="C176" t="str">
-        <v>Porcentaje</v>
+        <v>14.29%</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>Femenino</v>
-      </c>
-      <c r="B177">
-        <v>4</v>
+        <v/>
+      </c>
+      <c r="B177" t="str">
+        <v/>
       </c>
       <c r="C177" t="str">
-        <v>80.00%</v>
+        <v/>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>Masculino</v>
-      </c>
-      <c r="B178">
-        <v>1</v>
+        <v>13. TIEMPO DE EXPERIENCIA LABORAL</v>
+      </c>
+      <c r="B178" t="str">
+        <v/>
       </c>
       <c r="C178" t="str">
-        <v>20.00%</v>
+        <v/>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v/>
+        <v>Opción</v>
       </c>
       <c r="B179" t="str">
-        <v/>
+        <v>Cantidad</v>
       </c>
       <c r="C179" t="str">
-        <v/>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>EDAD</v>
-      </c>
-      <c r="B180" t="str">
-        <v/>
+        <v>Entre 10 a 14 años</v>
+      </c>
+      <c r="B180">
+        <v>2</v>
       </c>
       <c r="C180" t="str">
-        <v/>
+        <v>28.57%</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>Opción</v>
-      </c>
-      <c r="B181" t="str">
-        <v>Cantidad</v>
+        <v>Entre 5 a 9 años</v>
+      </c>
+      <c r="B181">
+        <v>2</v>
       </c>
       <c r="C181" t="str">
-        <v>Porcentaje</v>
+        <v>28.57%</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>35 -39</v>
+        <v>Entre 1 a 4 años</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C182" t="str">
-        <v>20.00%</v>
+        <v>28.57%</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>45 - 49</v>
+        <v>Entre 6 meses y 1 año</v>
       </c>
       <c r="B183">
         <v>1</v>
       </c>
       <c r="C183" t="str">
-        <v>20.00%</v>
+        <v>14.29%</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>30 - 34</v>
-      </c>
-      <c r="B184">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="B184" t="str">
+        <v/>
       </c>
       <c r="C184" t="str">
-        <v>20.00%</v>
+        <v/>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>40 - 44</v>
-      </c>
-      <c r="B185">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="B185" t="str">
+        <v/>
       </c>
       <c r="C185" t="str">
-        <v>20.00%</v>
+        <v/>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>25 -29</v>
-      </c>
-      <c r="B186">
-        <v>1</v>
+        <v>-------------------------</v>
+      </c>
+      <c r="B186" t="str">
+        <v/>
       </c>
       <c r="C186" t="str">
-        <v>20.00%</v>
+        <v/>
       </c>
     </row>
     <row r="187">
@@ -29855,7 +30119,7 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>ESTADO CIVIL</v>
+        <v>DEPARTAMENTO: MANTENIMIENTO</v>
       </c>
       <c r="B188" t="str">
         <v/>
@@ -29866,51 +30130,51 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>Opción</v>
+        <v>3. GÉNERO</v>
       </c>
       <c r="B189" t="str">
-        <v>Cantidad</v>
+        <v/>
       </c>
       <c r="C189" t="str">
-        <v>Porcentaje</v>
+        <v/>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>Soltero</v>
-      </c>
-      <c r="B190">
-        <v>3</v>
+        <v>Opción</v>
+      </c>
+      <c r="B190" t="str">
+        <v>Cantidad</v>
       </c>
       <c r="C190" t="str">
-        <v>60.00%</v>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>Casado</v>
+        <v>Masculino</v>
       </c>
       <c r="B191">
         <v>1</v>
       </c>
       <c r="C191" t="str">
-        <v>20.00%</v>
+        <v>100.00%</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>Unión libre</v>
-      </c>
-      <c r="B192">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="B192" t="str">
+        <v/>
       </c>
       <c r="C192" t="str">
-        <v>20.00%</v>
+        <v/>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v/>
+        <v>4. EDAD</v>
       </c>
       <c r="B193" t="str">
         <v/>
@@ -29921,117 +30185,117 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>NIVEL DE ESTUDIOS</v>
+        <v>Opción</v>
       </c>
       <c r="B194" t="str">
-        <v/>
+        <v>Cantidad</v>
       </c>
       <c r="C194" t="str">
-        <v/>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>Opción</v>
-      </c>
-      <c r="B195" t="str">
-        <v>Cantidad</v>
+        <v>60 - 64</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
       </c>
       <c r="C195" t="str">
-        <v>Porcentaje</v>
+        <v>100.00%</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>Licenciatura terminada</v>
-      </c>
-      <c r="B196">
-        <v>4</v>
+        <v/>
+      </c>
+      <c r="B196" t="str">
+        <v/>
       </c>
       <c r="C196" t="str">
-        <v>80.00%</v>
+        <v/>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>Técnico Superior terminado</v>
-      </c>
-      <c r="B197">
-        <v>1</v>
+        <v>5. ESTADO CIVIL</v>
+      </c>
+      <c r="B197" t="str">
+        <v/>
       </c>
       <c r="C197" t="str">
-        <v>20.00%</v>
+        <v/>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v/>
+        <v>Opción</v>
       </c>
       <c r="B198" t="str">
-        <v/>
+        <v>Cantidad</v>
       </c>
       <c r="C198" t="str">
-        <v/>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>TIPO DE PUESTO</v>
-      </c>
-      <c r="B199" t="str">
-        <v/>
+        <v>Soltero</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
       </c>
       <c r="C199" t="str">
-        <v/>
+        <v>100.00%</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>Opción</v>
+        <v/>
       </c>
       <c r="B200" t="str">
-        <v>Cantidad</v>
+        <v/>
       </c>
       <c r="C200" t="str">
-        <v>Porcentaje</v>
+        <v/>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>Anfitrión de Línea</v>
-      </c>
-      <c r="B201">
-        <v>3</v>
+        <v>6. NIVEL DE ESTUDIOS</v>
+      </c>
+      <c r="B201" t="str">
+        <v/>
       </c>
       <c r="C201" t="str">
-        <v>60.00%</v>
+        <v/>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>Gerente/Director</v>
-      </c>
-      <c r="B202">
-        <v>2</v>
+        <v>Opción</v>
+      </c>
+      <c r="B202" t="str">
+        <v>Cantidad</v>
       </c>
       <c r="C202" t="str">
-        <v>40.00%</v>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v/>
-      </c>
-      <c r="B203" t="str">
-        <v/>
+        <v>Primaria incompleta</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
       </c>
       <c r="C203" t="str">
-        <v/>
+        <v>100.00%</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>TIEMPO EN PUESTO</v>
+        <v/>
       </c>
       <c r="B204" t="str">
         <v/>
@@ -30042,84 +30306,84 @@
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>Opción</v>
+        <v>8. DEPARTAMENTO</v>
       </c>
       <c r="B205" t="str">
-        <v>Cantidad</v>
+        <v/>
       </c>
       <c r="C205" t="str">
-        <v>Porcentaje</v>
+        <v/>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>Entre 5 a 9 años</v>
-      </c>
-      <c r="B206">
-        <v>1</v>
+        <v>Opción</v>
+      </c>
+      <c r="B206" t="str">
+        <v>Cantidad</v>
       </c>
       <c r="C206" t="str">
-        <v>20.00%</v>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>Entre 15 a 19 años</v>
+        <v>Mantenimiento</v>
       </c>
       <c r="B207">
         <v>1</v>
       </c>
       <c r="C207" t="str">
-        <v>20.00%</v>
+        <v>100.00%</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>Entre 1 a 4 años</v>
-      </c>
-      <c r="B208">
-        <v>2</v>
+        <v/>
+      </c>
+      <c r="B208" t="str">
+        <v/>
       </c>
       <c r="C208" t="str">
-        <v>40.00%</v>
+        <v/>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>Entre 6 meses y 1 año</v>
-      </c>
-      <c r="B209">
-        <v>1</v>
+        <v>9. TIPO DE PUESTO</v>
+      </c>
+      <c r="B209" t="str">
+        <v/>
       </c>
       <c r="C209" t="str">
-        <v>20.00%</v>
+        <v/>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v/>
+        <v>Opción</v>
       </c>
       <c r="B210" t="str">
-        <v/>
+        <v>Cantidad</v>
       </c>
       <c r="C210" t="str">
-        <v/>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v/>
-      </c>
-      <c r="B211" t="str">
-        <v/>
+        <v>Anfitrión de Línea</v>
+      </c>
+      <c r="B211">
+        <v>1</v>
       </c>
       <c r="C211" t="str">
-        <v/>
+        <v>100.00%</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>-------------------------</v>
+        <v/>
       </c>
       <c r="B212" t="str">
         <v/>
@@ -30130,7 +30394,7 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v/>
+        <v>12. TIEMPO EN PUESTO</v>
       </c>
       <c r="B213" t="str">
         <v/>
@@ -30141,73 +30405,73 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>DEPARTAMENTO: VENTAS INDIVIDUALES</v>
+        <v>Opción</v>
       </c>
       <c r="B214" t="str">
-        <v/>
+        <v>Cantidad</v>
       </c>
       <c r="C214" t="str">
-        <v/>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>GÉNERO</v>
-      </c>
-      <c r="B215" t="str">
-        <v/>
+        <v>Entre 1 a 4 años</v>
+      </c>
+      <c r="B215">
+        <v>1</v>
       </c>
       <c r="C215" t="str">
-        <v/>
+        <v>100.00%</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>Opción</v>
+        <v/>
       </c>
       <c r="B216" t="str">
-        <v>Cantidad</v>
+        <v/>
       </c>
       <c r="C216" t="str">
-        <v>Porcentaje</v>
+        <v/>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>Femenino</v>
-      </c>
-      <c r="B217">
-        <v>3</v>
+        <v>13. TIEMPO DE EXPERIENCIA LABORAL</v>
+      </c>
+      <c r="B217" t="str">
+        <v/>
       </c>
       <c r="C217" t="str">
-        <v>75.00%</v>
+        <v/>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>Masculino</v>
-      </c>
-      <c r="B218">
-        <v>1</v>
+        <v>Opción</v>
+      </c>
+      <c r="B218" t="str">
+        <v>Cantidad</v>
       </c>
       <c r="C218" t="str">
-        <v>25.00%</v>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v/>
-      </c>
-      <c r="B219" t="str">
-        <v/>
+        <v>Entre 15 a 19 años</v>
+      </c>
+      <c r="B219">
+        <v>1</v>
       </c>
       <c r="C219" t="str">
-        <v/>
+        <v>100.00%</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>EDAD</v>
+        <v/>
       </c>
       <c r="B220" t="str">
         <v/>
@@ -30218,183 +30482,183 @@
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>Opción</v>
+        <v/>
       </c>
       <c r="B221" t="str">
-        <v>Cantidad</v>
+        <v/>
       </c>
       <c r="C221" t="str">
-        <v>Porcentaje</v>
+        <v/>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>40 - 44</v>
-      </c>
-      <c r="B222">
-        <v>1</v>
+        <v>-------------------------</v>
+      </c>
+      <c r="B222" t="str">
+        <v/>
       </c>
       <c r="C222" t="str">
-        <v>25.00%</v>
+        <v/>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>55 - 59</v>
-      </c>
-      <c r="B223">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="B223" t="str">
+        <v/>
       </c>
       <c r="C223" t="str">
-        <v>25.00%</v>
+        <v/>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>35 -39</v>
-      </c>
-      <c r="B224">
-        <v>1</v>
+        <v>DEPARTAMENTO: VENTAS</v>
+      </c>
+      <c r="B224" t="str">
+        <v/>
       </c>
       <c r="C224" t="str">
-        <v>25.00%</v>
+        <v/>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>45 - 49</v>
-      </c>
-      <c r="B225">
-        <v>1</v>
+        <v>3. GÉNERO</v>
+      </c>
+      <c r="B225" t="str">
+        <v/>
       </c>
       <c r="C225" t="str">
-        <v>25.00%</v>
+        <v/>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v/>
+        <v>Opción</v>
       </c>
       <c r="B226" t="str">
-        <v/>
+        <v>Cantidad</v>
       </c>
       <c r="C226" t="str">
-        <v/>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>ESTADO CIVIL</v>
-      </c>
-      <c r="B227" t="str">
-        <v/>
+        <v>Femenino</v>
+      </c>
+      <c r="B227">
+        <v>4</v>
       </c>
       <c r="C227" t="str">
-        <v/>
+        <v>80.00%</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>Opción</v>
-      </c>
-      <c r="B228" t="str">
-        <v>Cantidad</v>
+        <v>Masculino</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
       </c>
       <c r="C228" t="str">
-        <v>Porcentaje</v>
+        <v>20.00%</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>Casado</v>
-      </c>
-      <c r="B229">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="B229" t="str">
+        <v/>
       </c>
       <c r="C229" t="str">
-        <v>25.00%</v>
+        <v/>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>Viudo</v>
-      </c>
-      <c r="B230">
-        <v>1</v>
+        <v>4. EDAD</v>
+      </c>
+      <c r="B230" t="str">
+        <v/>
       </c>
       <c r="C230" t="str">
-        <v>25.00%</v>
+        <v/>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>Soltero</v>
-      </c>
-      <c r="B231">
-        <v>2</v>
+        <v>Opción</v>
+      </c>
+      <c r="B231" t="str">
+        <v>Cantidad</v>
       </c>
       <c r="C231" t="str">
-        <v>50.00%</v>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v/>
-      </c>
-      <c r="B232" t="str">
-        <v/>
+        <v>35 -39</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
       </c>
       <c r="C232" t="str">
-        <v/>
+        <v>20.00%</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>NIVEL DE ESTUDIOS</v>
-      </c>
-      <c r="B233" t="str">
-        <v/>
+        <v>45 - 49</v>
+      </c>
+      <c r="B233">
+        <v>1</v>
       </c>
       <c r="C233" t="str">
-        <v/>
+        <v>20.00%</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>Opción</v>
-      </c>
-      <c r="B234" t="str">
-        <v>Cantidad</v>
+        <v>30 - 34</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
       </c>
       <c r="C234" t="str">
-        <v>Porcentaje</v>
+        <v>20.00%</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>Licenciatura terminada</v>
+        <v>40 - 44</v>
       </c>
       <c r="B235">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C235" t="str">
-        <v>100.00%</v>
+        <v>20.00%</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v/>
-      </c>
-      <c r="B236" t="str">
-        <v/>
+        <v>25 -29</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
       </c>
       <c r="C236" t="str">
-        <v/>
+        <v>20.00%</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>TIPO DE PUESTO</v>
+        <v/>
       </c>
       <c r="B237" t="str">
         <v/>
@@ -30405,112 +30669,112 @@
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>Opción</v>
+        <v>5. ESTADO CIVIL</v>
       </c>
       <c r="B238" t="str">
-        <v>Cantidad</v>
+        <v/>
       </c>
       <c r="C238" t="str">
-        <v>Porcentaje</v>
+        <v/>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>Anfitrión de Línea</v>
-      </c>
-      <c r="B239">
-        <v>3</v>
+        <v>Opción</v>
+      </c>
+      <c r="B239" t="str">
+        <v>Cantidad</v>
       </c>
       <c r="C239" t="str">
-        <v>75.00%</v>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>Gerente/Director</v>
+        <v>Soltero</v>
       </c>
       <c r="B240">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C240" t="str">
-        <v>25.00%</v>
+        <v>60.00%</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v/>
-      </c>
-      <c r="B241" t="str">
-        <v/>
+        <v>Casado</v>
+      </c>
+      <c r="B241">
+        <v>1</v>
       </c>
       <c r="C241" t="str">
-        <v/>
+        <v>20.00%</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>TIEMPO EN PUESTO</v>
-      </c>
-      <c r="B242" t="str">
-        <v/>
+        <v>Unión libre</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
       </c>
       <c r="C242" t="str">
-        <v/>
+        <v>20.00%</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>Opción</v>
+        <v/>
       </c>
       <c r="B243" t="str">
-        <v>Cantidad</v>
+        <v/>
       </c>
       <c r="C243" t="str">
-        <v>Porcentaje</v>
+        <v/>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>Entre 1 a 4 años</v>
-      </c>
-      <c r="B244">
-        <v>2</v>
+        <v>6. NIVEL DE ESTUDIOS</v>
+      </c>
+      <c r="B244" t="str">
+        <v/>
       </c>
       <c r="C244" t="str">
-        <v>50.00%</v>
+        <v/>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>Entre 5 a 9 años</v>
-      </c>
-      <c r="B245">
-        <v>1</v>
+        <v>Opción</v>
+      </c>
+      <c r="B245" t="str">
+        <v>Cantidad</v>
       </c>
       <c r="C245" t="str">
-        <v>25.00%</v>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>Entre 6 meses y 1 año</v>
+        <v>Licenciatura terminada</v>
       </c>
       <c r="B246">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C246" t="str">
-        <v>25.00%</v>
+        <v>80.00%</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v/>
-      </c>
-      <c r="B247" t="str">
-        <v/>
+        <v>Técnico Superior terminado</v>
+      </c>
+      <c r="B247">
+        <v>1</v>
       </c>
       <c r="C247" t="str">
-        <v/>
+        <v>20.00%</v>
       </c>
     </row>
     <row r="248">
@@ -30526,7 +30790,7 @@
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>-------------------------</v>
+        <v>8. DEPARTAMENTO</v>
       </c>
       <c r="B249" t="str">
         <v/>
@@ -30537,29 +30801,29 @@
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v/>
+        <v>Opción</v>
       </c>
       <c r="B250" t="str">
-        <v/>
+        <v>Cantidad</v>
       </c>
       <c r="C250" t="str">
-        <v/>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>DEPARTAMENTO: VENTAS GRUPOS</v>
-      </c>
-      <c r="B251" t="str">
-        <v/>
+        <v>Ventas</v>
+      </c>
+      <c r="B251">
+        <v>5</v>
       </c>
       <c r="C251" t="str">
-        <v/>
+        <v>100.00%</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>GÉNERO</v>
+        <v/>
       </c>
       <c r="B252" t="str">
         <v/>
@@ -30570,51 +30834,51 @@
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>Opción</v>
+        <v>9. TIPO DE PUESTO</v>
       </c>
       <c r="B253" t="str">
-        <v>Cantidad</v>
+        <v/>
       </c>
       <c r="C253" t="str">
-        <v>Porcentaje</v>
+        <v/>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>Masculino</v>
-      </c>
-      <c r="B254">
-        <v>3</v>
+        <v>Opción</v>
+      </c>
+      <c r="B254" t="str">
+        <v>Cantidad</v>
       </c>
       <c r="C254" t="str">
-        <v>60.00%</v>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>Femenino</v>
+        <v>Anfitrión de Línea</v>
       </c>
       <c r="B255">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C255" t="str">
-        <v>40.00%</v>
+        <v>60.00%</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v/>
-      </c>
-      <c r="B256" t="str">
-        <v/>
+        <v>Gerente/Director</v>
+      </c>
+      <c r="B256">
+        <v>2</v>
       </c>
       <c r="C256" t="str">
-        <v/>
+        <v>40.00%</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>EDAD</v>
+        <v/>
       </c>
       <c r="B257" t="str">
         <v/>
@@ -30625,29 +30889,29 @@
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>Opción</v>
+        <v>12. TIEMPO EN PUESTO</v>
       </c>
       <c r="B258" t="str">
-        <v>Cantidad</v>
+        <v/>
       </c>
       <c r="C258" t="str">
-        <v>Porcentaje</v>
+        <v/>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>40 - 44</v>
-      </c>
-      <c r="B259">
-        <v>1</v>
+        <v>Opción</v>
+      </c>
+      <c r="B259" t="str">
+        <v>Cantidad</v>
       </c>
       <c r="C259" t="str">
-        <v>20.00%</v>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>20 - 24</v>
+        <v>Entre 5 a 9 años</v>
       </c>
       <c r="B260">
         <v>1</v>
@@ -30658,40 +30922,40 @@
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>30 - 34</v>
+        <v>Entre 15 a 19 años</v>
       </c>
       <c r="B261">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C261" t="str">
-        <v>40.00%</v>
+        <v>20.00%</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>35 -39</v>
+        <v>Entre 1 a 4 años</v>
       </c>
       <c r="B262">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C262" t="str">
-        <v>20.00%</v>
+        <v>40.00%</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v/>
-      </c>
-      <c r="B263" t="str">
-        <v/>
+        <v>Entre 6 meses y 1 año</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
       </c>
       <c r="C263" t="str">
-        <v/>
+        <v>20.00%</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>ESTADO CIVIL</v>
+        <v/>
       </c>
       <c r="B264" t="str">
         <v/>
@@ -30702,95 +30966,95 @@
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>Opción</v>
+        <v>13. TIEMPO DE EXPERIENCIA LABORAL</v>
       </c>
       <c r="B265" t="str">
-        <v>Cantidad</v>
+        <v/>
       </c>
       <c r="C265" t="str">
-        <v>Porcentaje</v>
+        <v/>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>Soltero</v>
-      </c>
-      <c r="B266">
-        <v>4</v>
+        <v>Opción</v>
+      </c>
+      <c r="B266" t="str">
+        <v>Cantidad</v>
       </c>
       <c r="C266" t="str">
-        <v>80.00%</v>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>Casado</v>
+        <v>Entre 5 a 9 años</v>
       </c>
       <c r="B267">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C267" t="str">
-        <v>20.00%</v>
+        <v>40.00%</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v/>
-      </c>
-      <c r="B268" t="str">
-        <v/>
+        <v>Entre 15 a 19 años</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
       </c>
       <c r="C268" t="str">
-        <v/>
+        <v>20.00%</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>NIVEL DE ESTUDIOS</v>
-      </c>
-      <c r="B269" t="str">
-        <v/>
+        <v>Entre 20 a 24 años</v>
+      </c>
+      <c r="B269">
+        <v>1</v>
       </c>
       <c r="C269" t="str">
-        <v/>
+        <v>20.00%</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>Opción</v>
-      </c>
-      <c r="B270" t="str">
-        <v>Cantidad</v>
+        <v>Entre 10 a 14 años</v>
+      </c>
+      <c r="B270">
+        <v>1</v>
       </c>
       <c r="C270" t="str">
-        <v>Porcentaje</v>
+        <v>20.00%</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>Licenciatura terminada</v>
-      </c>
-      <c r="B271">
-        <v>4</v>
+        <v/>
+      </c>
+      <c r="B271" t="str">
+        <v/>
       </c>
       <c r="C271" t="str">
-        <v>80.00%</v>
+        <v/>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>Maestría terminada</v>
-      </c>
-      <c r="B272">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="B272" t="str">
+        <v/>
       </c>
       <c r="C272" t="str">
-        <v>20.00%</v>
+        <v/>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v/>
+        <v>-------------------------</v>
       </c>
       <c r="B273" t="str">
         <v/>
@@ -30801,7 +31065,7 @@
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>TIPO DE PUESTO</v>
+        <v/>
       </c>
       <c r="B274" t="str">
         <v/>
@@ -30812,139 +31076,139 @@
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>Opción</v>
+        <v>DEPARTAMENTO: VENTAS INDIVIDUALES</v>
       </c>
       <c r="B275" t="str">
-        <v>Cantidad</v>
+        <v/>
       </c>
       <c r="C275" t="str">
-        <v>Porcentaje</v>
+        <v/>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>Gerente/Director</v>
-      </c>
-      <c r="B276">
-        <v>3</v>
+        <v>3. GÉNERO</v>
+      </c>
+      <c r="B276" t="str">
+        <v/>
       </c>
       <c r="C276" t="str">
-        <v>60.00%</v>
+        <v/>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>Anfitrión de Línea</v>
-      </c>
-      <c r="B277">
-        <v>2</v>
+        <v>Opción</v>
+      </c>
+      <c r="B277" t="str">
+        <v>Cantidad</v>
       </c>
       <c r="C277" t="str">
-        <v>40.00%</v>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v/>
-      </c>
-      <c r="B278" t="str">
-        <v/>
+        <v>Femenino</v>
+      </c>
+      <c r="B278">
+        <v>3</v>
       </c>
       <c r="C278" t="str">
-        <v/>
+        <v>75.00%</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>TIEMPO EN PUESTO</v>
-      </c>
-      <c r="B279" t="str">
-        <v/>
+        <v>Masculino</v>
+      </c>
+      <c r="B279">
+        <v>1</v>
       </c>
       <c r="C279" t="str">
-        <v/>
+        <v>25.00%</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>Opción</v>
+        <v/>
       </c>
       <c r="B280" t="str">
-        <v>Cantidad</v>
+        <v/>
       </c>
       <c r="C280" t="str">
-        <v>Porcentaje</v>
+        <v/>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>Entre 6 meses y 1 año</v>
-      </c>
-      <c r="B281">
-        <v>1</v>
+        <v>4. EDAD</v>
+      </c>
+      <c r="B281" t="str">
+        <v/>
       </c>
       <c r="C281" t="str">
-        <v>20.00%</v>
+        <v/>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>Menos de 6 meses</v>
-      </c>
-      <c r="B282">
-        <v>1</v>
+        <v>Opción</v>
+      </c>
+      <c r="B282" t="str">
+        <v>Cantidad</v>
       </c>
       <c r="C282" t="str">
-        <v>20.00%</v>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>Entre 1 a 4 años</v>
+        <v>40 - 44</v>
       </c>
       <c r="B283">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C283" t="str">
-        <v>40.00%</v>
+        <v>25.00%</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>Entre 10 a 14 años</v>
+        <v>55 - 59</v>
       </c>
       <c r="B284">
         <v>1</v>
       </c>
       <c r="C284" t="str">
-        <v>20.00%</v>
+        <v>25.00%</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v/>
-      </c>
-      <c r="B285" t="str">
-        <v/>
+        <v>35 -39</v>
+      </c>
+      <c r="B285">
+        <v>1</v>
       </c>
       <c r="C285" t="str">
-        <v/>
+        <v>25.00%</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v/>
-      </c>
-      <c r="B286" t="str">
-        <v/>
+        <v>45 - 49</v>
+      </c>
+      <c r="B286">
+        <v>1</v>
       </c>
       <c r="C286" t="str">
-        <v/>
+        <v>25.00%</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>-------------------------</v>
+        <v/>
       </c>
       <c r="B287" t="str">
         <v/>
@@ -30955,7 +31219,7 @@
     </row>
     <row r="288">
       <c r="A288" t="str">
-        <v/>
+        <v>5. ESTADO CIVIL</v>
       </c>
       <c r="B288" t="str">
         <v/>
@@ -30966,46 +31230,46 @@
     </row>
     <row r="289">
       <c r="A289" t="str">
-        <v>DEPARTAMENTO: MARKETING</v>
+        <v>Opción</v>
       </c>
       <c r="B289" t="str">
-        <v/>
+        <v>Cantidad</v>
       </c>
       <c r="C289" t="str">
-        <v/>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
-        <v>GÉNERO</v>
-      </c>
-      <c r="B290" t="str">
-        <v/>
+        <v>Casado</v>
+      </c>
+      <c r="B290">
+        <v>1</v>
       </c>
       <c r="C290" t="str">
-        <v/>
+        <v>25.00%</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="str">
-        <v>Opción</v>
-      </c>
-      <c r="B291" t="str">
-        <v>Cantidad</v>
+        <v>Viudo</v>
+      </c>
+      <c r="B291">
+        <v>1</v>
       </c>
       <c r="C291" t="str">
-        <v>Porcentaje</v>
+        <v>25.00%</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="str">
-        <v>Masculino</v>
+        <v>Soltero</v>
       </c>
       <c r="B292">
         <v>2</v>
       </c>
       <c r="C292" t="str">
-        <v>100.00%</v>
+        <v>50.00%</v>
       </c>
     </row>
     <row r="293">
@@ -31021,7 +31285,7 @@
     </row>
     <row r="294">
       <c r="A294" t="str">
-        <v>EDAD</v>
+        <v>6. NIVEL DE ESTUDIOS</v>
       </c>
       <c r="B294" t="str">
         <v/>
@@ -31043,29 +31307,29 @@
     </row>
     <row r="296">
       <c r="A296" t="str">
-        <v>40 - 44</v>
+        <v>Licenciatura terminada</v>
       </c>
       <c r="B296">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C296" t="str">
-        <v>50.00%</v>
+        <v>100.00%</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="str">
-        <v>35 -39</v>
-      </c>
-      <c r="B297">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="B297" t="str">
+        <v/>
       </c>
       <c r="C297" t="str">
-        <v>50.00%</v>
+        <v/>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="str">
-        <v/>
+        <v>8. DEPARTAMENTO</v>
       </c>
       <c r="B298" t="str">
         <v/>
@@ -31076,40 +31340,40 @@
     </row>
     <row r="299">
       <c r="A299" t="str">
-        <v>ESTADO CIVIL</v>
+        <v>Opción</v>
       </c>
       <c r="B299" t="str">
-        <v/>
+        <v>Cantidad</v>
       </c>
       <c r="C299" t="str">
-        <v/>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="str">
-        <v>Opción</v>
-      </c>
-      <c r="B300" t="str">
-        <v>Cantidad</v>
+        <v>Ventas individuales</v>
+      </c>
+      <c r="B300">
+        <v>4</v>
       </c>
       <c r="C300" t="str">
-        <v>Porcentaje</v>
+        <v>100.00%</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="str">
-        <v>Unión libre</v>
-      </c>
-      <c r="B301">
-        <v>2</v>
+        <v/>
+      </c>
+      <c r="B301" t="str">
+        <v/>
       </c>
       <c r="C301" t="str">
-        <v>100.00%</v>
+        <v/>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="str">
-        <v/>
+        <v>9. TIPO DE PUESTO</v>
       </c>
       <c r="B302" t="str">
         <v/>
@@ -31120,35 +31384,35 @@
     </row>
     <row r="303">
       <c r="A303" t="str">
-        <v>NIVEL DE ESTUDIOS</v>
+        <v>Opción</v>
       </c>
       <c r="B303" t="str">
-        <v/>
+        <v>Cantidad</v>
       </c>
       <c r="C303" t="str">
-        <v/>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="str">
-        <v>Opción</v>
-      </c>
-      <c r="B304" t="str">
-        <v>Cantidad</v>
+        <v>Anfitrión de Línea</v>
+      </c>
+      <c r="B304">
+        <v>3</v>
       </c>
       <c r="C304" t="str">
-        <v>Porcentaje</v>
+        <v>75.00%</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="str">
-        <v>Licenciatura terminada</v>
+        <v>Gerente/Director</v>
       </c>
       <c r="B305">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C305" t="str">
-        <v>100.00%</v>
+        <v>25.00%</v>
       </c>
     </row>
     <row r="306">
@@ -31164,7 +31428,7 @@
     </row>
     <row r="307">
       <c r="A307" t="str">
-        <v>TIPO DE PUESTO</v>
+        <v>12. TIEMPO EN PUESTO</v>
       </c>
       <c r="B307" t="str">
         <v/>
@@ -31186,10 +31450,10 @@
     </row>
     <row r="309">
       <c r="A309" t="str">
-        <v>Supervisor/Jefe</v>
+        <v>Entre 1 a 4 años</v>
       </c>
       <c r="B309">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C309" t="str">
         <v>50.00%</v>
@@ -31197,29 +31461,29 @@
     </row>
     <row r="310">
       <c r="A310" t="str">
-        <v>Anfitrión de Línea</v>
+        <v>Entre 5 a 9 años</v>
       </c>
       <c r="B310">
         <v>1</v>
       </c>
       <c r="C310" t="str">
-        <v>50.00%</v>
+        <v>25.00%</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="str">
-        <v/>
-      </c>
-      <c r="B311" t="str">
-        <v/>
+        <v>Entre 6 meses y 1 año</v>
+      </c>
+      <c r="B311">
+        <v>1</v>
       </c>
       <c r="C311" t="str">
-        <v/>
+        <v>25.00%</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="str">
-        <v>TIEMPO EN PUESTO</v>
+        <v/>
       </c>
       <c r="B312" t="str">
         <v/>
@@ -31230,46 +31494,46 @@
     </row>
     <row r="313">
       <c r="A313" t="str">
-        <v>Opción</v>
+        <v>13. TIEMPO DE EXPERIENCIA LABORAL</v>
       </c>
       <c r="B313" t="str">
-        <v>Cantidad</v>
+        <v/>
       </c>
       <c r="C313" t="str">
-        <v>Porcentaje</v>
+        <v/>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="str">
-        <v>Entre 5 a 9 años</v>
-      </c>
-      <c r="B314">
-        <v>1</v>
+        <v>Opción</v>
+      </c>
+      <c r="B314" t="str">
+        <v>Cantidad</v>
       </c>
       <c r="C314" t="str">
-        <v>50.00%</v>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="str">
-        <v>Entre 1 a 4 años</v>
+        <v>Entre 15 a 19 años</v>
       </c>
       <c r="B315">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C315" t="str">
-        <v>50.00%</v>
+        <v>75.00%</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="str">
-        <v/>
-      </c>
-      <c r="B316" t="str">
-        <v/>
+        <v>Entre 5 a 9 años</v>
+      </c>
+      <c r="B316">
+        <v>1</v>
       </c>
       <c r="C316" t="str">
-        <v/>
+        <v>25.00%</v>
       </c>
     </row>
     <row r="317">
@@ -31285,7 +31549,7 @@
     </row>
     <row r="318">
       <c r="A318" t="str">
-        <v>-------------------------</v>
+        <v/>
       </c>
       <c r="B318" t="str">
         <v/>
@@ -31296,7 +31560,7 @@
     </row>
     <row r="319">
       <c r="A319" t="str">
-        <v/>
+        <v>-------------------------</v>
       </c>
       <c r="B319" t="str">
         <v/>
@@ -31307,7 +31571,7 @@
     </row>
     <row r="320">
       <c r="A320" t="str">
-        <v>DEPARTAMENTO: CONTABILIDAD</v>
+        <v/>
       </c>
       <c r="B320" t="str">
         <v/>
@@ -31318,7 +31582,7 @@
     </row>
     <row r="321">
       <c r="A321" t="str">
-        <v>GÉNERO</v>
+        <v>DEPARTAMENTO: VENTAS GRUPOS</v>
       </c>
       <c r="B321" t="str">
         <v/>
@@ -31329,24 +31593,24 @@
     </row>
     <row r="322">
       <c r="A322" t="str">
-        <v>Opción</v>
+        <v>3. GÉNERO</v>
       </c>
       <c r="B322" t="str">
-        <v>Cantidad</v>
+        <v/>
       </c>
       <c r="C322" t="str">
-        <v>Porcentaje</v>
+        <v/>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="str">
-        <v>Femenino</v>
-      </c>
-      <c r="B323">
-        <v>1</v>
+        <v>Opción</v>
+      </c>
+      <c r="B323" t="str">
+        <v>Cantidad</v>
       </c>
       <c r="C323" t="str">
-        <v>33.33%</v>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="324">
@@ -31354,26 +31618,26 @@
         <v>Masculino</v>
       </c>
       <c r="B324">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C324" t="str">
-        <v>66.67%</v>
+        <v>60.00%</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="str">
-        <v/>
-      </c>
-      <c r="B325" t="str">
-        <v/>
+        <v>Femenino</v>
+      </c>
+      <c r="B325">
+        <v>2</v>
       </c>
       <c r="C325" t="str">
-        <v/>
+        <v>40.00%</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="str">
-        <v>EDAD</v>
+        <v/>
       </c>
       <c r="B326" t="str">
         <v/>
@@ -31384,101 +31648,101 @@
     </row>
     <row r="327">
       <c r="A327" t="str">
-        <v>Opción</v>
+        <v>4. EDAD</v>
       </c>
       <c r="B327" t="str">
-        <v>Cantidad</v>
+        <v/>
       </c>
       <c r="C327" t="str">
-        <v>Porcentaje</v>
+        <v/>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="str">
-        <v>40 - 44</v>
-      </c>
-      <c r="B328">
-        <v>1</v>
+        <v>Opción</v>
+      </c>
+      <c r="B328" t="str">
+        <v>Cantidad</v>
       </c>
       <c r="C328" t="str">
-        <v>33.33%</v>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="str">
-        <v>45 - 49</v>
+        <v>40 - 44</v>
       </c>
       <c r="B329">
         <v>1</v>
       </c>
       <c r="C329" t="str">
-        <v>33.33%</v>
+        <v>20.00%</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="str">
-        <v>25 -29</v>
+        <v>20 - 24</v>
       </c>
       <c r="B330">
         <v>1</v>
       </c>
       <c r="C330" t="str">
-        <v>33.33%</v>
+        <v>20.00%</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="str">
-        <v/>
-      </c>
-      <c r="B331" t="str">
-        <v/>
+        <v>30 - 34</v>
+      </c>
+      <c r="B331">
+        <v>2</v>
       </c>
       <c r="C331" t="str">
-        <v/>
+        <v>40.00%</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="str">
-        <v>ESTADO CIVIL</v>
-      </c>
-      <c r="B332" t="str">
-        <v/>
+        <v>35 -39</v>
+      </c>
+      <c r="B332">
+        <v>1</v>
       </c>
       <c r="C332" t="str">
-        <v/>
+        <v>20.00%</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="str">
-        <v>Opción</v>
+        <v/>
       </c>
       <c r="B333" t="str">
-        <v>Cantidad</v>
+        <v/>
       </c>
       <c r="C333" t="str">
-        <v>Porcentaje</v>
+        <v/>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="str">
-        <v>Unión libre</v>
-      </c>
-      <c r="B334">
-        <v>1</v>
+        <v>5. ESTADO CIVIL</v>
+      </c>
+      <c r="B334" t="str">
+        <v/>
       </c>
       <c r="C334" t="str">
-        <v>33.33%</v>
+        <v/>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="str">
-        <v>Casado</v>
-      </c>
-      <c r="B335">
-        <v>1</v>
+        <v>Opción</v>
+      </c>
+      <c r="B335" t="str">
+        <v>Cantidad</v>
       </c>
       <c r="C335" t="str">
-        <v>33.33%</v>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="336">
@@ -31486,26 +31750,26 @@
         <v>Soltero</v>
       </c>
       <c r="B336">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C336" t="str">
-        <v>33.33%</v>
+        <v>80.00%</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="str">
-        <v/>
-      </c>
-      <c r="B337" t="str">
-        <v/>
+        <v>Casado</v>
+      </c>
+      <c r="B337">
+        <v>1</v>
       </c>
       <c r="C337" t="str">
-        <v/>
+        <v>20.00%</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="str">
-        <v>NIVEL DE ESTUDIOS</v>
+        <v/>
       </c>
       <c r="B338" t="str">
         <v/>
@@ -31516,95 +31780,95 @@
     </row>
     <row r="339">
       <c r="A339" t="str">
-        <v>Opción</v>
+        <v>6. NIVEL DE ESTUDIOS</v>
       </c>
       <c r="B339" t="str">
-        <v>Cantidad</v>
+        <v/>
       </c>
       <c r="C339" t="str">
-        <v>Porcentaje</v>
+        <v/>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="str">
-        <v>Licenciatura terminada</v>
-      </c>
-      <c r="B340">
-        <v>3</v>
+        <v>Opción</v>
+      </c>
+      <c r="B340" t="str">
+        <v>Cantidad</v>
       </c>
       <c r="C340" t="str">
-        <v>100.00%</v>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="str">
-        <v/>
-      </c>
-      <c r="B341" t="str">
-        <v/>
+        <v>Licenciatura terminada</v>
+      </c>
+      <c r="B341">
+        <v>4</v>
       </c>
       <c r="C341" t="str">
-        <v/>
+        <v>80.00%</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="str">
-        <v>TIPO DE PUESTO</v>
-      </c>
-      <c r="B342" t="str">
-        <v/>
+        <v>Maestría terminada</v>
+      </c>
+      <c r="B342">
+        <v>1</v>
       </c>
       <c r="C342" t="str">
-        <v/>
+        <v>20.00%</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="str">
-        <v>Opción</v>
+        <v/>
       </c>
       <c r="B343" t="str">
-        <v>Cantidad</v>
+        <v/>
       </c>
       <c r="C343" t="str">
-        <v>Porcentaje</v>
+        <v/>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="str">
-        <v>Supervisor/Jefe</v>
-      </c>
-      <c r="B344">
-        <v>2</v>
+        <v>8. DEPARTAMENTO</v>
+      </c>
+      <c r="B344" t="str">
+        <v/>
       </c>
       <c r="C344" t="str">
-        <v>66.67%</v>
+        <v/>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="str">
-        <v>Anfitrión de Línea</v>
-      </c>
-      <c r="B345">
-        <v>1</v>
+        <v>Opción</v>
+      </c>
+      <c r="B345" t="str">
+        <v>Cantidad</v>
       </c>
       <c r="C345" t="str">
-        <v>33.33%</v>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="str">
-        <v/>
-      </c>
-      <c r="B346" t="str">
-        <v/>
+        <v>Ventas grupos</v>
+      </c>
+      <c r="B346">
+        <v>5</v>
       </c>
       <c r="C346" t="str">
-        <v/>
+        <v>100.00%</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="str">
-        <v>TIEMPO EN PUESTO</v>
+        <v/>
       </c>
       <c r="B347" t="str">
         <v/>
@@ -31615,46 +31879,46 @@
     </row>
     <row r="348">
       <c r="A348" t="str">
-        <v>Opción</v>
+        <v>9. TIPO DE PUESTO</v>
       </c>
       <c r="B348" t="str">
-        <v>Cantidad</v>
+        <v/>
       </c>
       <c r="C348" t="str">
-        <v>Porcentaje</v>
+        <v/>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="str">
-        <v>Entre 1 a 4 años</v>
-      </c>
-      <c r="B349">
-        <v>2</v>
+        <v>Opción</v>
+      </c>
+      <c r="B349" t="str">
+        <v>Cantidad</v>
       </c>
       <c r="C349" t="str">
-        <v>66.67%</v>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="str">
-        <v>Entre 5 a 9 años</v>
+        <v>Gerente/Director</v>
       </c>
       <c r="B350">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C350" t="str">
-        <v>33.33%</v>
+        <v>60.00%</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="str">
-        <v/>
-      </c>
-      <c r="B351" t="str">
-        <v/>
+        <v>Anfitrión de Línea</v>
+      </c>
+      <c r="B351">
+        <v>2</v>
       </c>
       <c r="C351" t="str">
-        <v/>
+        <v>40.00%</v>
       </c>
     </row>
     <row r="352">
@@ -31670,7 +31934,7 @@
     </row>
     <row r="353">
       <c r="A353" t="str">
-        <v>-------------------------</v>
+        <v>12. TIEMPO EN PUESTO</v>
       </c>
       <c r="B353" t="str">
         <v/>
@@ -31681,57 +31945,57 @@
     </row>
     <row r="354">
       <c r="A354" t="str">
-        <v/>
+        <v>Opción</v>
       </c>
       <c r="B354" t="str">
-        <v/>
+        <v>Cantidad</v>
       </c>
       <c r="C354" t="str">
-        <v/>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="str">
-        <v>DEPARTAMENTO: REVENUE</v>
-      </c>
-      <c r="B355" t="str">
-        <v/>
+        <v>Entre 6 meses y 1 año</v>
+      </c>
+      <c r="B355">
+        <v>1</v>
       </c>
       <c r="C355" t="str">
-        <v/>
+        <v>20.00%</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="str">
-        <v>GÉNERO</v>
-      </c>
-      <c r="B356" t="str">
-        <v/>
+        <v>Menos de 6 meses</v>
+      </c>
+      <c r="B356">
+        <v>1</v>
       </c>
       <c r="C356" t="str">
-        <v/>
+        <v>20.00%</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="str">
-        <v>Opción</v>
-      </c>
-      <c r="B357" t="str">
-        <v>Cantidad</v>
+        <v>Entre 1 a 4 años</v>
+      </c>
+      <c r="B357">
+        <v>2</v>
       </c>
       <c r="C357" t="str">
-        <v>Porcentaje</v>
+        <v>40.00%</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="str">
-        <v>Masculino</v>
+        <v>Entre 10 a 14 años</v>
       </c>
       <c r="B358">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C358" t="str">
-        <v>100.00%</v>
+        <v>20.00%</v>
       </c>
     </row>
     <row r="359">
@@ -31747,7 +32011,7 @@
     </row>
     <row r="360">
       <c r="A360" t="str">
-        <v>EDAD</v>
+        <v>13. TIEMPO DE EXPERIENCIA LABORAL</v>
       </c>
       <c r="B360" t="str">
         <v/>
@@ -31769,84 +32033,84 @@
     </row>
     <row r="362">
       <c r="A362" t="str">
-        <v>30 - 34</v>
+        <v>Entre 10 a 14 años</v>
       </c>
       <c r="B362">
         <v>1</v>
       </c>
       <c r="C362" t="str">
-        <v>50.00%</v>
+        <v>20.00%</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="str">
-        <v>20 - 24</v>
+        <v>Menos de 6 meses</v>
       </c>
       <c r="B363">
         <v>1</v>
       </c>
       <c r="C363" t="str">
-        <v>50.00%</v>
+        <v>20.00%</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="str">
-        <v/>
-      </c>
-      <c r="B364" t="str">
-        <v/>
+        <v>Entre 5 a 9 años</v>
+      </c>
+      <c r="B364">
+        <v>1</v>
       </c>
       <c r="C364" t="str">
-        <v/>
+        <v>20.00%</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="str">
-        <v>ESTADO CIVIL</v>
-      </c>
-      <c r="B365" t="str">
-        <v/>
+        <v>Entre 15 a 19 años</v>
+      </c>
+      <c r="B365">
+        <v>1</v>
       </c>
       <c r="C365" t="str">
-        <v/>
+        <v>20.00%</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="str">
-        <v>Opción</v>
-      </c>
-      <c r="B366" t="str">
-        <v>Cantidad</v>
+        <v>Entre 1 a 4 años</v>
+      </c>
+      <c r="B366">
+        <v>1</v>
       </c>
       <c r="C366" t="str">
-        <v>Porcentaje</v>
+        <v>20.00%</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="str">
-        <v>Casado</v>
-      </c>
-      <c r="B367">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="B367" t="str">
+        <v/>
       </c>
       <c r="C367" t="str">
-        <v>50.00%</v>
+        <v/>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="str">
-        <v>Soltero</v>
-      </c>
-      <c r="B368">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="B368" t="str">
+        <v/>
       </c>
       <c r="C368" t="str">
-        <v>50.00%</v>
+        <v/>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="str">
-        <v/>
+        <v>-------------------------</v>
       </c>
       <c r="B369" t="str">
         <v/>
@@ -31857,7 +32121,7 @@
     </row>
     <row r="370">
       <c r="A370" t="str">
-        <v>NIVEL DE ESTUDIOS</v>
+        <v/>
       </c>
       <c r="B370" t="str">
         <v/>
@@ -31868,51 +32132,51 @@
     </row>
     <row r="371">
       <c r="A371" t="str">
-        <v>Opción</v>
+        <v>DEPARTAMENTO: MARKETING</v>
       </c>
       <c r="B371" t="str">
-        <v>Cantidad</v>
+        <v/>
       </c>
       <c r="C371" t="str">
-        <v>Porcentaje</v>
+        <v/>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="str">
-        <v>Licenciatura terminada</v>
-      </c>
-      <c r="B372">
-        <v>1</v>
+        <v>3. GÉNERO</v>
+      </c>
+      <c r="B372" t="str">
+        <v/>
       </c>
       <c r="C372" t="str">
-        <v>50.00%</v>
+        <v/>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="str">
-        <v>Maestría terminada</v>
-      </c>
-      <c r="B373">
-        <v>1</v>
+        <v>Opción</v>
+      </c>
+      <c r="B373" t="str">
+        <v>Cantidad</v>
       </c>
       <c r="C373" t="str">
-        <v>50.00%</v>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="str">
-        <v/>
-      </c>
-      <c r="B374" t="str">
-        <v/>
+        <v>Masculino</v>
+      </c>
+      <c r="B374">
+        <v>2</v>
       </c>
       <c r="C374" t="str">
-        <v/>
+        <v>100.00%</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="str">
-        <v>TIPO DE PUESTO</v>
+        <v/>
       </c>
       <c r="B375" t="str">
         <v/>
@@ -31923,90 +32187,90 @@
     </row>
     <row r="376">
       <c r="A376" t="str">
-        <v>Opción</v>
+        <v>4. EDAD</v>
       </c>
       <c r="B376" t="str">
-        <v>Cantidad</v>
+        <v/>
       </c>
       <c r="C376" t="str">
-        <v>Porcentaje</v>
+        <v/>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="str">
-        <v>Gerente/Director</v>
-      </c>
-      <c r="B377">
-        <v>2</v>
+        <v>Opción</v>
+      </c>
+      <c r="B377" t="str">
+        <v>Cantidad</v>
       </c>
       <c r="C377" t="str">
-        <v>100.00%</v>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="str">
-        <v/>
-      </c>
-      <c r="B378" t="str">
-        <v/>
+        <v>40 - 44</v>
+      </c>
+      <c r="B378">
+        <v>1</v>
       </c>
       <c r="C378" t="str">
-        <v/>
+        <v>50.00%</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="str">
-        <v>TIEMPO EN PUESTO</v>
-      </c>
-      <c r="B379" t="str">
-        <v/>
+        <v>35 -39</v>
+      </c>
+      <c r="B379">
+        <v>1</v>
       </c>
       <c r="C379" t="str">
-        <v/>
+        <v>50.00%</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="str">
-        <v>Opción</v>
+        <v/>
       </c>
       <c r="B380" t="str">
-        <v>Cantidad</v>
+        <v/>
       </c>
       <c r="C380" t="str">
-        <v>Porcentaje</v>
+        <v/>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="str">
-        <v>Menos de 6 meses</v>
-      </c>
-      <c r="B381">
-        <v>1</v>
+        <v>5. ESTADO CIVIL</v>
+      </c>
+      <c r="B381" t="str">
+        <v/>
       </c>
       <c r="C381" t="str">
-        <v>50.00%</v>
+        <v/>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="str">
-        <v>Entre 6 meses y 1 año</v>
-      </c>
-      <c r="B382">
-        <v>1</v>
+        <v>Opción</v>
+      </c>
+      <c r="B382" t="str">
+        <v>Cantidad</v>
       </c>
       <c r="C382" t="str">
-        <v>50.00%</v>
+        <v>Porcentaje</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="str">
-        <v/>
-      </c>
-      <c r="B383" t="str">
-        <v/>
+        <v>Unión libre</v>
+      </c>
+      <c r="B383">
+        <v>2</v>
       </c>
       <c r="C383" t="str">
-        <v/>
+        <v>100.00%</v>
       </c>
     </row>
     <row r="384">
@@ -32022,7 +32286,7 @@
     </row>
     <row r="385">
       <c r="A385" t="str">
-        <v>-------------------------</v>
+        <v>6. NIVEL DE ESTUDIOS</v>
       </c>
       <c r="B385" t="str">
         <v/>
@@ -32033,18 +32297,1217 @@
     </row>
     <row r="386">
       <c r="A386" t="str">
-        <v/>
+        <v>Opción</v>
       </c>
       <c r="B386" t="str">
-        <v/>
+        <v>Cantidad</v>
       </c>
       <c r="C386" t="str">
+        <v>Porcentaje</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="str">
+        <v>Licenciatura terminada</v>
+      </c>
+      <c r="B387">
+        <v>2</v>
+      </c>
+      <c r="C387" t="str">
+        <v>100.00%</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="str">
+        <v/>
+      </c>
+      <c r="B388" t="str">
+        <v/>
+      </c>
+      <c r="C388" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="str">
+        <v>8. DEPARTAMENTO</v>
+      </c>
+      <c r="B389" t="str">
+        <v/>
+      </c>
+      <c r="C389" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="str">
+        <v>Opción</v>
+      </c>
+      <c r="B390" t="str">
+        <v>Cantidad</v>
+      </c>
+      <c r="C390" t="str">
+        <v>Porcentaje</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="str">
+        <v>Marketing</v>
+      </c>
+      <c r="B391">
+        <v>2</v>
+      </c>
+      <c r="C391" t="str">
+        <v>100.00%</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="str">
+        <v/>
+      </c>
+      <c r="B392" t="str">
+        <v/>
+      </c>
+      <c r="C392" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="str">
+        <v>9. TIPO DE PUESTO</v>
+      </c>
+      <c r="B393" t="str">
+        <v/>
+      </c>
+      <c r="C393" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="str">
+        <v>Opción</v>
+      </c>
+      <c r="B394" t="str">
+        <v>Cantidad</v>
+      </c>
+      <c r="C394" t="str">
+        <v>Porcentaje</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="str">
+        <v>Supervisor/Jefe</v>
+      </c>
+      <c r="B395">
+        <v>1</v>
+      </c>
+      <c r="C395" t="str">
+        <v>50.00%</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="str">
+        <v>Anfitrión de Línea</v>
+      </c>
+      <c r="B396">
+        <v>1</v>
+      </c>
+      <c r="C396" t="str">
+        <v>50.00%</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="str">
+        <v/>
+      </c>
+      <c r="B397" t="str">
+        <v/>
+      </c>
+      <c r="C397" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="str">
+        <v>12. TIEMPO EN PUESTO</v>
+      </c>
+      <c r="B398" t="str">
+        <v/>
+      </c>
+      <c r="C398" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="str">
+        <v>Opción</v>
+      </c>
+      <c r="B399" t="str">
+        <v>Cantidad</v>
+      </c>
+      <c r="C399" t="str">
+        <v>Porcentaje</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="str">
+        <v>Entre 5 a 9 años</v>
+      </c>
+      <c r="B400">
+        <v>1</v>
+      </c>
+      <c r="C400" t="str">
+        <v>50.00%</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="str">
+        <v>Entre 1 a 4 años</v>
+      </c>
+      <c r="B401">
+        <v>1</v>
+      </c>
+      <c r="C401" t="str">
+        <v>50.00%</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="str">
+        <v/>
+      </c>
+      <c r="B402" t="str">
+        <v/>
+      </c>
+      <c r="C402" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="str">
+        <v>13. TIEMPO DE EXPERIENCIA LABORAL</v>
+      </c>
+      <c r="B403" t="str">
+        <v/>
+      </c>
+      <c r="C403" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="str">
+        <v>Opción</v>
+      </c>
+      <c r="B404" t="str">
+        <v>Cantidad</v>
+      </c>
+      <c r="C404" t="str">
+        <v>Porcentaje</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="str">
+        <v>Entre 15 a 19 años</v>
+      </c>
+      <c r="B405">
+        <v>1</v>
+      </c>
+      <c r="C405" t="str">
+        <v>50.00%</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="str">
+        <v>Entre 10 a 14 años</v>
+      </c>
+      <c r="B406">
+        <v>1</v>
+      </c>
+      <c r="C406" t="str">
+        <v>50.00%</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="str">
+        <v/>
+      </c>
+      <c r="B407" t="str">
+        <v/>
+      </c>
+      <c r="C407" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="str">
+        <v/>
+      </c>
+      <c r="B408" t="str">
+        <v/>
+      </c>
+      <c r="C408" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="str">
+        <v>-------------------------</v>
+      </c>
+      <c r="B409" t="str">
+        <v/>
+      </c>
+      <c r="C409" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="str">
+        <v/>
+      </c>
+      <c r="B410" t="str">
+        <v/>
+      </c>
+      <c r="C410" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="str">
+        <v>DEPARTAMENTO: CONTABILIDAD</v>
+      </c>
+      <c r="B411" t="str">
+        <v/>
+      </c>
+      <c r="C411" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="str">
+        <v>3. GÉNERO</v>
+      </c>
+      <c r="B412" t="str">
+        <v/>
+      </c>
+      <c r="C412" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="str">
+        <v>Opción</v>
+      </c>
+      <c r="B413" t="str">
+        <v>Cantidad</v>
+      </c>
+      <c r="C413" t="str">
+        <v>Porcentaje</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="str">
+        <v>Femenino</v>
+      </c>
+      <c r="B414">
+        <v>1</v>
+      </c>
+      <c r="C414" t="str">
+        <v>33.33%</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="str">
+        <v>Masculino</v>
+      </c>
+      <c r="B415">
+        <v>2</v>
+      </c>
+      <c r="C415" t="str">
+        <v>66.67%</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="str">
+        <v/>
+      </c>
+      <c r="B416" t="str">
+        <v/>
+      </c>
+      <c r="C416" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="str">
+        <v>4. EDAD</v>
+      </c>
+      <c r="B417" t="str">
+        <v/>
+      </c>
+      <c r="C417" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="str">
+        <v>Opción</v>
+      </c>
+      <c r="B418" t="str">
+        <v>Cantidad</v>
+      </c>
+      <c r="C418" t="str">
+        <v>Porcentaje</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="str">
+        <v>40 - 44</v>
+      </c>
+      <c r="B419">
+        <v>1</v>
+      </c>
+      <c r="C419" t="str">
+        <v>33.33%</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="str">
+        <v>45 - 49</v>
+      </c>
+      <c r="B420">
+        <v>1</v>
+      </c>
+      <c r="C420" t="str">
+        <v>33.33%</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="str">
+        <v>25 -29</v>
+      </c>
+      <c r="B421">
+        <v>1</v>
+      </c>
+      <c r="C421" t="str">
+        <v>33.33%</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="str">
+        <v/>
+      </c>
+      <c r="B422" t="str">
+        <v/>
+      </c>
+      <c r="C422" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="str">
+        <v>5. ESTADO CIVIL</v>
+      </c>
+      <c r="B423" t="str">
+        <v/>
+      </c>
+      <c r="C423" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="str">
+        <v>Opción</v>
+      </c>
+      <c r="B424" t="str">
+        <v>Cantidad</v>
+      </c>
+      <c r="C424" t="str">
+        <v>Porcentaje</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="str">
+        <v>Unión libre</v>
+      </c>
+      <c r="B425">
+        <v>1</v>
+      </c>
+      <c r="C425" t="str">
+        <v>33.33%</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="str">
+        <v>Casado</v>
+      </c>
+      <c r="B426">
+        <v>1</v>
+      </c>
+      <c r="C426" t="str">
+        <v>33.33%</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="str">
+        <v>Soltero</v>
+      </c>
+      <c r="B427">
+        <v>1</v>
+      </c>
+      <c r="C427" t="str">
+        <v>33.33%</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="str">
+        <v/>
+      </c>
+      <c r="B428" t="str">
+        <v/>
+      </c>
+      <c r="C428" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="str">
+        <v>6. NIVEL DE ESTUDIOS</v>
+      </c>
+      <c r="B429" t="str">
+        <v/>
+      </c>
+      <c r="C429" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="str">
+        <v>Opción</v>
+      </c>
+      <c r="B430" t="str">
+        <v>Cantidad</v>
+      </c>
+      <c r="C430" t="str">
+        <v>Porcentaje</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="str">
+        <v>Licenciatura terminada</v>
+      </c>
+      <c r="B431">
+        <v>3</v>
+      </c>
+      <c r="C431" t="str">
+        <v>100.00%</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="str">
+        <v/>
+      </c>
+      <c r="B432" t="str">
+        <v/>
+      </c>
+      <c r="C432" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="str">
+        <v>8. DEPARTAMENTO</v>
+      </c>
+      <c r="B433" t="str">
+        <v/>
+      </c>
+      <c r="C433" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="str">
+        <v>Opción</v>
+      </c>
+      <c r="B434" t="str">
+        <v>Cantidad</v>
+      </c>
+      <c r="C434" t="str">
+        <v>Porcentaje</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="str">
+        <v>Contabilidad</v>
+      </c>
+      <c r="B435">
+        <v>3</v>
+      </c>
+      <c r="C435" t="str">
+        <v>100.00%</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="str">
+        <v/>
+      </c>
+      <c r="B436" t="str">
+        <v/>
+      </c>
+      <c r="C436" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="str">
+        <v>9. TIPO DE PUESTO</v>
+      </c>
+      <c r="B437" t="str">
+        <v/>
+      </c>
+      <c r="C437" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="str">
+        <v>Opción</v>
+      </c>
+      <c r="B438" t="str">
+        <v>Cantidad</v>
+      </c>
+      <c r="C438" t="str">
+        <v>Porcentaje</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="str">
+        <v>Supervisor/Jefe</v>
+      </c>
+      <c r="B439">
+        <v>2</v>
+      </c>
+      <c r="C439" t="str">
+        <v>66.67%</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="str">
+        <v>Anfitrión de Línea</v>
+      </c>
+      <c r="B440">
+        <v>1</v>
+      </c>
+      <c r="C440" t="str">
+        <v>33.33%</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="str">
+        <v/>
+      </c>
+      <c r="B441" t="str">
+        <v/>
+      </c>
+      <c r="C441" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="str">
+        <v>12. TIEMPO EN PUESTO</v>
+      </c>
+      <c r="B442" t="str">
+        <v/>
+      </c>
+      <c r="C442" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="str">
+        <v>Opción</v>
+      </c>
+      <c r="B443" t="str">
+        <v>Cantidad</v>
+      </c>
+      <c r="C443" t="str">
+        <v>Porcentaje</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="str">
+        <v>Entre 1 a 4 años</v>
+      </c>
+      <c r="B444">
+        <v>2</v>
+      </c>
+      <c r="C444" t="str">
+        <v>66.67%</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="str">
+        <v>Entre 5 a 9 años</v>
+      </c>
+      <c r="B445">
+        <v>1</v>
+      </c>
+      <c r="C445" t="str">
+        <v>33.33%</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="str">
+        <v/>
+      </c>
+      <c r="B446" t="str">
+        <v/>
+      </c>
+      <c r="C446" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="str">
+        <v>13. TIEMPO DE EXPERIENCIA LABORAL</v>
+      </c>
+      <c r="B447" t="str">
+        <v/>
+      </c>
+      <c r="C447" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="str">
+        <v>Opción</v>
+      </c>
+      <c r="B448" t="str">
+        <v>Cantidad</v>
+      </c>
+      <c r="C448" t="str">
+        <v>Porcentaje</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="str">
+        <v>Entre 1 a 4 años</v>
+      </c>
+      <c r="B449">
+        <v>1</v>
+      </c>
+      <c r="C449" t="str">
+        <v>33.33%</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="str">
+        <v>Entre 10 a 14 años</v>
+      </c>
+      <c r="B450">
+        <v>2</v>
+      </c>
+      <c r="C450" t="str">
+        <v>66.67%</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="str">
+        <v/>
+      </c>
+      <c r="B451" t="str">
+        <v/>
+      </c>
+      <c r="C451" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="str">
+        <v/>
+      </c>
+      <c r="B452" t="str">
+        <v/>
+      </c>
+      <c r="C452" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="str">
+        <v>-------------------------</v>
+      </c>
+      <c r="B453" t="str">
+        <v/>
+      </c>
+      <c r="C453" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="str">
+        <v/>
+      </c>
+      <c r="B454" t="str">
+        <v/>
+      </c>
+      <c r="C454" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="str">
+        <v>DEPARTAMENTO: REVENUE</v>
+      </c>
+      <c r="B455" t="str">
+        <v/>
+      </c>
+      <c r="C455" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="str">
+        <v>3. GÉNERO</v>
+      </c>
+      <c r="B456" t="str">
+        <v/>
+      </c>
+      <c r="C456" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="str">
+        <v>Opción</v>
+      </c>
+      <c r="B457" t="str">
+        <v>Cantidad</v>
+      </c>
+      <c r="C457" t="str">
+        <v>Porcentaje</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="str">
+        <v>Masculino</v>
+      </c>
+      <c r="B458">
+        <v>2</v>
+      </c>
+      <c r="C458" t="str">
+        <v>100.00%</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="str">
+        <v/>
+      </c>
+      <c r="B459" t="str">
+        <v/>
+      </c>
+      <c r="C459" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="str">
+        <v>4. EDAD</v>
+      </c>
+      <c r="B460" t="str">
+        <v/>
+      </c>
+      <c r="C460" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="str">
+        <v>Opción</v>
+      </c>
+      <c r="B461" t="str">
+        <v>Cantidad</v>
+      </c>
+      <c r="C461" t="str">
+        <v>Porcentaje</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="str">
+        <v>30 - 34</v>
+      </c>
+      <c r="B462">
+        <v>1</v>
+      </c>
+      <c r="C462" t="str">
+        <v>50.00%</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="str">
+        <v>20 - 24</v>
+      </c>
+      <c r="B463">
+        <v>1</v>
+      </c>
+      <c r="C463" t="str">
+        <v>50.00%</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="str">
+        <v/>
+      </c>
+      <c r="B464" t="str">
+        <v/>
+      </c>
+      <c r="C464" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="str">
+        <v>5. ESTADO CIVIL</v>
+      </c>
+      <c r="B465" t="str">
+        <v/>
+      </c>
+      <c r="C465" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="str">
+        <v>Opción</v>
+      </c>
+      <c r="B466" t="str">
+        <v>Cantidad</v>
+      </c>
+      <c r="C466" t="str">
+        <v>Porcentaje</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="str">
+        <v>Casado</v>
+      </c>
+      <c r="B467">
+        <v>1</v>
+      </c>
+      <c r="C467" t="str">
+        <v>50.00%</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="str">
+        <v>Soltero</v>
+      </c>
+      <c r="B468">
+        <v>1</v>
+      </c>
+      <c r="C468" t="str">
+        <v>50.00%</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="str">
+        <v/>
+      </c>
+      <c r="B469" t="str">
+        <v/>
+      </c>
+      <c r="C469" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="str">
+        <v>6. NIVEL DE ESTUDIOS</v>
+      </c>
+      <c r="B470" t="str">
+        <v/>
+      </c>
+      <c r="C470" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="str">
+        <v>Opción</v>
+      </c>
+      <c r="B471" t="str">
+        <v>Cantidad</v>
+      </c>
+      <c r="C471" t="str">
+        <v>Porcentaje</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="str">
+        <v>Licenciatura terminada</v>
+      </c>
+      <c r="B472">
+        <v>1</v>
+      </c>
+      <c r="C472" t="str">
+        <v>50.00%</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="str">
+        <v>Maestría terminada</v>
+      </c>
+      <c r="B473">
+        <v>1</v>
+      </c>
+      <c r="C473" t="str">
+        <v>50.00%</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="str">
+        <v/>
+      </c>
+      <c r="B474" t="str">
+        <v/>
+      </c>
+      <c r="C474" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="str">
+        <v>8. DEPARTAMENTO</v>
+      </c>
+      <c r="B475" t="str">
+        <v/>
+      </c>
+      <c r="C475" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="str">
+        <v>Opción</v>
+      </c>
+      <c r="B476" t="str">
+        <v>Cantidad</v>
+      </c>
+      <c r="C476" t="str">
+        <v>Porcentaje</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="str">
+        <v>Revenue</v>
+      </c>
+      <c r="B477">
+        <v>2</v>
+      </c>
+      <c r="C477" t="str">
+        <v>100.00%</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="str">
+        <v/>
+      </c>
+      <c r="B478" t="str">
+        <v/>
+      </c>
+      <c r="C478" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="str">
+        <v>9. TIPO DE PUESTO</v>
+      </c>
+      <c r="B479" t="str">
+        <v/>
+      </c>
+      <c r="C479" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="str">
+        <v>Opción</v>
+      </c>
+      <c r="B480" t="str">
+        <v>Cantidad</v>
+      </c>
+      <c r="C480" t="str">
+        <v>Porcentaje</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="str">
+        <v>Gerente/Director</v>
+      </c>
+      <c r="B481">
+        <v>2</v>
+      </c>
+      <c r="C481" t="str">
+        <v>100.00%</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="str">
+        <v/>
+      </c>
+      <c r="B482" t="str">
+        <v/>
+      </c>
+      <c r="C482" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="str">
+        <v>12. TIEMPO EN PUESTO</v>
+      </c>
+      <c r="B483" t="str">
+        <v/>
+      </c>
+      <c r="C483" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="str">
+        <v>Opción</v>
+      </c>
+      <c r="B484" t="str">
+        <v>Cantidad</v>
+      </c>
+      <c r="C484" t="str">
+        <v>Porcentaje</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="str">
+        <v>Menos de 6 meses</v>
+      </c>
+      <c r="B485">
+        <v>1</v>
+      </c>
+      <c r="C485" t="str">
+        <v>50.00%</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="str">
+        <v>Entre 6 meses y 1 año</v>
+      </c>
+      <c r="B486">
+        <v>1</v>
+      </c>
+      <c r="C486" t="str">
+        <v>50.00%</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="str">
+        <v/>
+      </c>
+      <c r="B487" t="str">
+        <v/>
+      </c>
+      <c r="C487" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="str">
+        <v>13. TIEMPO DE EXPERIENCIA LABORAL</v>
+      </c>
+      <c r="B488" t="str">
+        <v/>
+      </c>
+      <c r="C488" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="str">
+        <v>Opción</v>
+      </c>
+      <c r="B489" t="str">
+        <v>Cantidad</v>
+      </c>
+      <c r="C489" t="str">
+        <v>Porcentaje</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="str">
+        <v>Entre 5 a 9 años</v>
+      </c>
+      <c r="B490">
+        <v>1</v>
+      </c>
+      <c r="C490" t="str">
+        <v>50.00%</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="str">
+        <v>Entre 1 a 4 años</v>
+      </c>
+      <c r="B491">
+        <v>1</v>
+      </c>
+      <c r="C491" t="str">
+        <v>50.00%</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="str">
+        <v/>
+      </c>
+      <c r="B492" t="str">
+        <v/>
+      </c>
+      <c r="C492" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="str">
+        <v/>
+      </c>
+      <c r="B493" t="str">
+        <v/>
+      </c>
+      <c r="C493" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="str">
+        <v>-------------------------</v>
+      </c>
+      <c r="B494" t="str">
+        <v/>
+      </c>
+      <c r="C494" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="str">
+        <v/>
+      </c>
+      <c r="B495" t="str">
+        <v/>
+      </c>
+      <c r="C495" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C386"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C495"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/analisis/analisis_princess_mundo_imperial.xlsx
+++ b/analisis/analisis_princess_mundo_imperial.xlsx
@@ -11898,7 +11898,7 @@
     </row>
     <row r="318">
       <c r="A318" t="str">
-        <v>DEPARTAMENTO: MANTENIMIENTO</v>
+        <v>DEPARTAMENTO: MANTENIMIENTO Y JARDINERÍA</v>
       </c>
       <c r="B318" t="str">
         <v/>
@@ -28376,7 +28376,7 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Mantenimiento</v>
+        <v>Mantenimiento y Jardinería</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -30815,7 +30815,7 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>DEPARTAMENTO: MANTENIMIENTO</v>
+        <v>DEPARTAMENTO: MANTENIMIENTO Y JARDINERÍA</v>
       </c>
       <c r="B188" t="str">
         <v/>
@@ -31024,7 +31024,7 @@
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>Mantenimiento</v>
+        <v>Mantenimiento y Jardinería</v>
       </c>
       <c r="B207">
         <v>1</v>
